--- a/Excel/SecondGround.xlsx
+++ b/Excel/SecondGround.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124C52F1-7398-4D61-B7FE-D8A24E308A97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27222083-9970-4A4D-AE1D-B5CAD16BFE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="20424" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="11448" yWindow="468" windowWidth="10596" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:OP16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AT14" sqref="AT14"/>
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1957,56 +1957,56 @@
       <c r="BI2" s="3">
         <v>102</v>
       </c>
-      <c r="BJ2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY2" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ2" s="2">
-        <v>101</v>
+      <c r="BJ2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BK2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BL2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BM2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BN2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BO2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BP2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BQ2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BR2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BS2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BT2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BU2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BV2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BW2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BX2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BY2" s="3">
+        <v>102</v>
+      </c>
+      <c r="BZ2" s="3">
+        <v>102</v>
       </c>
       <c r="CA2" s="2">
         <v>101</v>
@@ -3070,19 +3070,19 @@
         <v>102</v>
       </c>
       <c r="Z3" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AA3" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AB3" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AC3" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AD3" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AE3" s="3">
         <v>102</v>
@@ -3177,56 +3177,56 @@
       <c r="BI3" s="3">
         <v>102</v>
       </c>
-      <c r="BJ3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY3" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ3" s="2">
-        <v>101</v>
+      <c r="BJ3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BK3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BL3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BM3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BN3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BO3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BQ3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BR3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BS3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BT3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BU3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BV3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BW3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BX3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BY3" s="3">
+        <v>102</v>
+      </c>
+      <c r="BZ3" s="3">
+        <v>102</v>
       </c>
       <c r="CA3" s="2">
         <v>101</v>
@@ -4287,7 +4287,7 @@
         <v>102</v>
       </c>
       <c r="Y4" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Z4" s="3">
         <v>112</v>
@@ -4305,7 +4305,7 @@
         <v>112</v>
       </c>
       <c r="AE4" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AF4" s="3">
         <v>102</v>
@@ -4397,56 +4397,56 @@
       <c r="BI4" s="3">
         <v>102</v>
       </c>
-      <c r="BJ4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY4" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ4" s="2">
-        <v>101</v>
+      <c r="BJ4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BK4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BL4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BM4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BN4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BO4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BP4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BQ4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BR4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BS4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BT4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BU4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BV4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BW4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BX4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BY4" s="3">
+        <v>102</v>
+      </c>
+      <c r="BZ4" s="3">
+        <v>102</v>
       </c>
       <c r="CA4" s="2">
         <v>101</v>
@@ -5477,16 +5477,16 @@
         <v>102</v>
       </c>
       <c r="O5" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="P5" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="R5" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="S5" s="3">
         <v>102</v>
@@ -5617,56 +5617,56 @@
       <c r="BI5" s="3">
         <v>102</v>
       </c>
-      <c r="BJ5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY5" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ5" s="2">
-        <v>101</v>
+      <c r="BJ5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BK5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BL5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BM5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BN5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BO5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BP5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BQ5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BR5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BS5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BT5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BU5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BV5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BW5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BX5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BY5" s="3">
+        <v>102</v>
+      </c>
+      <c r="BZ5" s="3">
+        <v>102</v>
       </c>
       <c r="CA5" s="2">
         <v>101</v>
@@ -6694,7 +6694,7 @@
         <v>102</v>
       </c>
       <c r="N6" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O6" s="3">
         <v>112</v>
@@ -6706,10 +6706,10 @@
         <v>112</v>
       </c>
       <c r="R6" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="S6" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="T6" s="3">
         <v>102</v>
@@ -6837,56 +6837,56 @@
       <c r="BI6" s="3">
         <v>102</v>
       </c>
-      <c r="BJ6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY6" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ6" s="2">
-        <v>101</v>
+      <c r="BJ6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BK6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BL6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BM6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BN6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BO6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BP6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BQ6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BR6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BS6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BT6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BU6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BV6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BW6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BX6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BY6" s="3">
+        <v>102</v>
+      </c>
+      <c r="BZ6" s="3">
+        <v>102</v>
       </c>
       <c r="CA6" s="2">
         <v>101</v>
@@ -7911,7 +7911,7 @@
         <v>102</v>
       </c>
       <c r="M7" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="N7" s="3">
         <v>112</v>
@@ -7929,10 +7929,10 @@
         <v>112</v>
       </c>
       <c r="S7" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="T7" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="U7" s="3">
         <v>102</v>
@@ -8057,56 +8057,56 @@
       <c r="BI7" s="3">
         <v>102</v>
       </c>
-      <c r="BJ7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY7" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ7" s="2">
-        <v>101</v>
+      <c r="BJ7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BK7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BL7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BM7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BN7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BO7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BP7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BQ7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BR7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BS7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BT7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BU7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BV7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BW7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BX7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BY7" s="3">
+        <v>102</v>
+      </c>
+      <c r="BZ7" s="3">
+        <v>102</v>
       </c>
       <c r="CA7" s="2">
         <v>101</v>
@@ -9152,7 +9152,7 @@
         <v>112</v>
       </c>
       <c r="T8" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="U8" s="3">
         <v>102</v>
@@ -9277,56 +9277,56 @@
       <c r="BI8" s="3">
         <v>102</v>
       </c>
-      <c r="BJ8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY8" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ8" s="2">
-        <v>101</v>
+      <c r="BJ8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BK8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BL8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BM8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BN8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BO8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BP8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BQ8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BR8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BS8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BT8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BU8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BV8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BW8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BX8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BY8" s="3">
+        <v>102</v>
+      </c>
+      <c r="BZ8" s="3">
+        <v>102</v>
       </c>
       <c r="CA8" s="2">
         <v>101</v>
@@ -10372,7 +10372,7 @@
         <v>112</v>
       </c>
       <c r="T9" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="U9" s="3">
         <v>102</v>
@@ -10497,56 +10497,56 @@
       <c r="BI9" s="3">
         <v>102</v>
       </c>
-      <c r="BJ9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY9" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ9" s="2">
-        <v>101</v>
+      <c r="BJ9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BK9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BL9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BM9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BN9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BO9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BP9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BQ9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BR9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BS9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BT9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BU9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BV9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BW9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BX9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BY9" s="3">
+        <v>102</v>
+      </c>
+      <c r="BZ9" s="3">
+        <v>102</v>
       </c>
       <c r="CA9" s="2">
         <v>101</v>
@@ -11592,7 +11592,7 @@
         <v>112</v>
       </c>
       <c r="T10" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="U10" s="3">
         <v>102</v>
@@ -11717,56 +11717,56 @@
       <c r="BI10" s="3">
         <v>102</v>
       </c>
-      <c r="BJ10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY10" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ10" s="2">
-        <v>101</v>
+      <c r="BJ10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BK10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BL10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BM10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BN10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BO10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BP10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BQ10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BR10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BS10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BT10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BU10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BV10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BW10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BX10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BY10" s="3">
+        <v>102</v>
+      </c>
+      <c r="BZ10" s="3">
+        <v>102</v>
       </c>
       <c r="CA10" s="2">
         <v>101</v>
@@ -12809,7 +12809,7 @@
         <v>112</v>
       </c>
       <c r="S11" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="T11" s="3">
         <v>102</v>
@@ -12937,56 +12937,56 @@
       <c r="BI11" s="3">
         <v>102</v>
       </c>
-      <c r="BJ11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY11" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ11" s="2">
-        <v>101</v>
+      <c r="BJ11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BK11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BL11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BM11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BN11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BO11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BP11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BQ11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BR11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BS11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BT11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BU11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BV11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BW11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BX11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BY11" s="3">
+        <v>102</v>
+      </c>
+      <c r="BZ11" s="3">
+        <v>102</v>
       </c>
       <c r="CA11" s="2">
         <v>101</v>
@@ -14026,7 +14026,7 @@
         <v>112</v>
       </c>
       <c r="R12" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="S12" s="3">
         <v>102</v>
@@ -14157,56 +14157,56 @@
       <c r="BI12" s="3">
         <v>102</v>
       </c>
-      <c r="BJ12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY12" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ12" s="2">
-        <v>101</v>
+      <c r="BJ12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BK12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BL12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BM12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BN12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BO12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BP12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BQ12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BR12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BS12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BT12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BU12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BV12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BW12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BX12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BY12" s="3">
+        <v>102</v>
+      </c>
+      <c r="BZ12" s="3">
+        <v>102</v>
       </c>
       <c r="CA12" s="2">
         <v>101</v>
@@ -15377,56 +15377,56 @@
       <c r="BI13" s="3">
         <v>102</v>
       </c>
-      <c r="BJ13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY13" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ13" s="2">
-        <v>101</v>
+      <c r="BJ13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BK13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BL13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BM13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BN13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BO13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BP13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BQ13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BR13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BS13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BT13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BU13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BV13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BW13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BX13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BY13" s="3">
+        <v>102</v>
+      </c>
+      <c r="BZ13" s="3">
+        <v>102</v>
       </c>
       <c r="CA13" s="2">
         <v>101</v>
@@ -16597,56 +16597,56 @@
       <c r="BI14" s="3">
         <v>102</v>
       </c>
-      <c r="BJ14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY14" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ14" s="2">
-        <v>101</v>
+      <c r="BJ14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BK14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BL14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BM14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BN14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BO14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BP14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BQ14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BR14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BS14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BT14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BU14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BV14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BW14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BX14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BY14" s="3">
+        <v>102</v>
+      </c>
+      <c r="BZ14" s="3">
+        <v>102</v>
       </c>
       <c r="CA14" s="2">
         <v>101</v>
@@ -17817,56 +17817,56 @@
       <c r="BI15" s="3">
         <v>102</v>
       </c>
-      <c r="BJ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ15" s="2">
-        <v>101</v>
+      <c r="BJ15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BK15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BL15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BM15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BN15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BO15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BP15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BQ15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BR15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BS15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BT15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BU15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BV15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BW15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BX15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BY15" s="3">
+        <v>102</v>
+      </c>
+      <c r="BZ15" s="3">
+        <v>102</v>
       </c>
       <c r="CA15" s="2">
         <v>101</v>
@@ -19037,56 +19037,56 @@
       <c r="BI16" s="3">
         <v>102</v>
       </c>
-      <c r="BJ16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY16" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ16" s="2">
-        <v>101</v>
+      <c r="BJ16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BK16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BL16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BM16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BN16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BO16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BP16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BQ16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BR16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BS16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BT16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BU16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BV16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BW16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BX16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BY16" s="3">
+        <v>102</v>
+      </c>
+      <c r="BZ16" s="3">
+        <v>102</v>
       </c>
       <c r="CA16" s="2">
         <v>101</v>

--- a/Excel/SecondGround.xlsx
+++ b/Excel/SecondGround.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27222083-9970-4A4D-AE1D-B5CAD16BFE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCCA907-3F9F-42B1-88E7-23B8F263FA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11448" yWindow="468" windowWidth="10596" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10596" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -130,13 +130,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -150,6 +297,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:OP16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -554,163 +734,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:406" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="4">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4">
-        <v>0</v>
-      </c>
-      <c r="H1" s="4">
-        <v>0</v>
-      </c>
-      <c r="I1" s="4">
-        <v>0</v>
-      </c>
-      <c r="J1" s="4">
-        <v>0</v>
-      </c>
-      <c r="K1" s="4">
-        <v>0</v>
-      </c>
-      <c r="L1" s="4">
-        <v>0</v>
-      </c>
-      <c r="M1" s="4">
-        <v>0</v>
-      </c>
-      <c r="N1" s="4">
-        <v>0</v>
-      </c>
-      <c r="O1" s="4">
-        <v>0</v>
-      </c>
-      <c r="P1" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>0</v>
-      </c>
-      <c r="R1" s="4">
-        <v>0</v>
-      </c>
-      <c r="S1" s="4">
-        <v>0</v>
-      </c>
-      <c r="T1" s="4">
-        <v>0</v>
-      </c>
-      <c r="U1" s="4">
-        <v>0</v>
-      </c>
-      <c r="V1" s="4">
-        <v>0</v>
-      </c>
-      <c r="W1" s="4">
-        <v>0</v>
-      </c>
-      <c r="X1" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AY1" s="4">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="4">
-        <v>0</v>
-      </c>
-      <c r="BA1" s="4">
+      <c r="A1" s="7">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8">
+        <v>0</v>
+      </c>
+      <c r="E1" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1" s="8">
+        <v>0</v>
+      </c>
+      <c r="G1" s="8">
+        <v>0</v>
+      </c>
+      <c r="H1" s="8">
+        <v>0</v>
+      </c>
+      <c r="I1" s="8">
+        <v>0</v>
+      </c>
+      <c r="J1" s="8">
+        <v>0</v>
+      </c>
+      <c r="K1" s="8">
+        <v>0</v>
+      </c>
+      <c r="L1" s="8">
+        <v>0</v>
+      </c>
+      <c r="M1" s="8">
+        <v>0</v>
+      </c>
+      <c r="N1" s="8">
+        <v>0</v>
+      </c>
+      <c r="O1" s="8">
+        <v>0</v>
+      </c>
+      <c r="P1" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>0</v>
+      </c>
+      <c r="R1" s="8">
+        <v>0</v>
+      </c>
+      <c r="S1" s="8">
+        <v>0</v>
+      </c>
+      <c r="T1" s="8">
+        <v>0</v>
+      </c>
+      <c r="U1" s="8">
+        <v>0</v>
+      </c>
+      <c r="V1" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1" s="8">
+        <v>0</v>
+      </c>
+      <c r="X1" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY1" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA1" s="5">
         <v>0</v>
       </c>
       <c r="BB1" s="4">
@@ -1774,7 +1954,7 @@
       </c>
     </row>
     <row r="2" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
+      <c r="A2" s="10">
         <v>102</v>
       </c>
       <c r="B2" s="3">
@@ -1796,7 +1976,7 @@
         <v>102</v>
       </c>
       <c r="H2" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I2" s="3">
         <v>102</v>
@@ -1874,141 +2054,141 @@
         <v>102</v>
       </c>
       <c r="AH2" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI2" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AJ2" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AK2" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AL2" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AM2" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN2" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO2" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP2" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ2" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AR2" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AS2" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AT2" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AU2" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AV2" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW2" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AX2" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY2" s="3">
-        <v>102</v>
-      </c>
-      <c r="AZ2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BB2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BD2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BE2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BF2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BG2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BH2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BI2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BJ2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BK2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BL2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BM2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BN2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BO2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BP2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BQ2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BR2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BS2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BT2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BU2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BV2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BW2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BX2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BY2" s="3">
-        <v>102</v>
-      </c>
-      <c r="BZ2" s="3">
-        <v>102</v>
-      </c>
-      <c r="CA2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AZ2" s="11">
+        <v>101</v>
+      </c>
+      <c r="BA2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BB2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BC2" s="6">
+        <v>112</v>
+      </c>
+      <c r="BD2" s="6">
+        <v>112</v>
+      </c>
+      <c r="BE2" s="6">
+        <v>112</v>
+      </c>
+      <c r="BF2" s="6">
+        <v>112</v>
+      </c>
+      <c r="BG2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BH2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BI2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BJ2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BK2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BL2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BM2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BN2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BO2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BP2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BQ2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BR2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BS2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BT2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BU2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BV2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BW2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BX2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BY2" s="6">
+        <v>101</v>
+      </c>
+      <c r="BZ2" s="6">
+        <v>101</v>
+      </c>
+      <c r="CA2" s="6">
         <v>101</v>
       </c>
       <c r="CB2" s="2">
@@ -2994,7 +3174,7 @@
       </c>
     </row>
     <row r="3" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
+      <c r="A3" s="10">
         <v>102</v>
       </c>
       <c r="B3" s="3">
@@ -3013,10 +3193,10 @@
         <v>102</v>
       </c>
       <c r="G3" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H3" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="I3" s="3">
         <v>102</v>
@@ -3046,13 +3226,13 @@
         <v>102</v>
       </c>
       <c r="R3" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="S3" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="T3" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="U3" s="3">
         <v>102</v>
@@ -3070,19 +3250,19 @@
         <v>102</v>
       </c>
       <c r="Z3" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AA3" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AB3" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AC3" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AD3" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AE3" s="3">
         <v>102</v>
@@ -3094,139 +3274,139 @@
         <v>102</v>
       </c>
       <c r="AH3" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI3" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AJ3" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AK3" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AL3" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AM3" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN3" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO3" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP3" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AQ3" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AR3" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AS3" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AT3" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AU3" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV3" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW3" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AX3" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY3" s="3">
-        <v>102</v>
-      </c>
-      <c r="AZ3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BA3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BB3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BC3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BD3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BE3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BF3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BG3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BH3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BI3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BJ3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BK3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BL3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BM3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BN3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BO3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BP3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BQ3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BR3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BS3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BT3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BU3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BV3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BW3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BX3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BY3" s="3">
-        <v>102</v>
-      </c>
-      <c r="BZ3" s="3">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="AZ3" s="11">
+        <v>101</v>
+      </c>
+      <c r="BA3" s="15">
+        <v>101</v>
+      </c>
+      <c r="BB3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BC3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>112</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>112</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>112</v>
+      </c>
+      <c r="BG3" s="2">
+        <v>112</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BI3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BJ3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BK3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BL3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BN3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BO3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BP3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BQ3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BR3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BS3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BT3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BU3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BV3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BW3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ3" s="2">
+        <v>101</v>
       </c>
       <c r="CA3" s="2">
         <v>101</v>
@@ -4214,7 +4394,7 @@
       </c>
     </row>
     <row r="4" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
+      <c r="A4" s="10">
         <v>102</v>
       </c>
       <c r="B4" s="3">
@@ -4230,10 +4410,10 @@
         <v>102</v>
       </c>
       <c r="F4" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G4" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H4" s="3">
         <v>102</v>
@@ -4260,25 +4440,25 @@
         <v>102</v>
       </c>
       <c r="P4" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="R4" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="S4" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="T4" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="U4" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="V4" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="W4" s="3">
         <v>102</v>
@@ -4287,25 +4467,25 @@
         <v>102</v>
       </c>
       <c r="Y4" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Z4" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AA4" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AB4" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AC4" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AD4" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AE4" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AF4" s="3">
         <v>102</v>
@@ -4317,136 +4497,136 @@
         <v>102</v>
       </c>
       <c r="AI4" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ4" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AK4" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AL4" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AM4" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN4" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO4" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AP4" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AQ4" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AR4" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AS4" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AT4" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AU4" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV4" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW4" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AX4" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY4" s="3">
-        <v>102</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BD4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BE4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BF4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BJ4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BK4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BL4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BM4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BP4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BQ4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BR4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BS4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BT4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BU4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BV4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BW4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BX4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BY4" s="3">
-        <v>102</v>
-      </c>
-      <c r="BZ4" s="3">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="AZ4" s="11">
+        <v>101</v>
+      </c>
+      <c r="BA4" s="15">
+        <v>101</v>
+      </c>
+      <c r="BB4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BC4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BE4" s="2">
+        <v>112</v>
+      </c>
+      <c r="BF4" s="2">
+        <v>112</v>
+      </c>
+      <c r="BG4" s="2">
+        <v>112</v>
+      </c>
+      <c r="BH4" s="2">
+        <v>112</v>
+      </c>
+      <c r="BI4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BJ4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BK4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BL4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BM4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BN4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BO4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BP4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BQ4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BR4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BS4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BT4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BU4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BV4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BW4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY4" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ4" s="2">
+        <v>101</v>
       </c>
       <c r="CA4" s="2">
         <v>101</v>
@@ -5434,7 +5614,7 @@
       </c>
     </row>
     <row r="5" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
+      <c r="A5" s="10">
         <v>102</v>
       </c>
       <c r="B5" s="3">
@@ -5447,10 +5627,10 @@
         <v>102</v>
       </c>
       <c r="E5" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F5" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G5" s="3">
         <v>102</v>
@@ -5489,19 +5669,19 @@
         <v>112</v>
       </c>
       <c r="S5" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="T5" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="U5" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="V5" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="W5" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="X5" s="3">
         <v>102</v>
@@ -5510,19 +5690,19 @@
         <v>102</v>
       </c>
       <c r="Z5" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AA5" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AB5" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AC5" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AD5" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AE5" s="3">
         <v>102</v>
@@ -5540,133 +5720,133 @@
         <v>102</v>
       </c>
       <c r="AJ5" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK5" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AL5" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AM5" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AN5" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO5" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP5" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AQ5" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AR5" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AS5" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AT5" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AU5" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV5" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW5" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AX5" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY5" s="3">
-        <v>102</v>
-      </c>
-      <c r="AZ5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BA5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BB5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BC5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BD5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BE5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BF5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BG5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BH5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BI5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BJ5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BK5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BL5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BM5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BN5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BO5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BP5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BQ5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BR5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BS5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BT5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BU5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BV5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BW5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BX5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BY5" s="3">
-        <v>102</v>
-      </c>
-      <c r="BZ5" s="3">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="AZ5" s="11">
+        <v>101</v>
+      </c>
+      <c r="BA5" s="15">
+        <v>101</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>112</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>112</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>112</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>112</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BL5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ5" s="2">
+        <v>101</v>
       </c>
       <c r="CA5" s="2">
         <v>101</v>
@@ -6654,20 +6834,20 @@
       </c>
     </row>
     <row r="6" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
-        <v>102</v>
+      <c r="A6" s="10">
+        <v>112</v>
       </c>
       <c r="B6" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C6" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D6" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E6" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F6" s="3">
         <v>102</v>
@@ -6712,19 +6892,19 @@
         <v>112</v>
       </c>
       <c r="T6" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="U6" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="V6" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="W6" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="X6" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Y6" s="3">
         <v>102</v>
@@ -6763,130 +6943,130 @@
         <v>102</v>
       </c>
       <c r="AK6" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL6" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AM6" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AN6" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AO6" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP6" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ6" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR6" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS6" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AT6" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AU6" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV6" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW6" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AX6" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY6" s="3">
-        <v>102</v>
-      </c>
-      <c r="AZ6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BA6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BB6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BC6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BD6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BE6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BF6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BG6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BH6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BI6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BJ6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BK6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BL6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BM6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BN6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BO6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BP6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BQ6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BR6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BS6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BT6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BU6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BV6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BW6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BX6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BY6" s="3">
-        <v>102</v>
-      </c>
-      <c r="BZ6" s="3">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="AZ6" s="11">
+        <v>101</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>101</v>
+      </c>
+      <c r="BB6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BC6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BE6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BF6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BG6" s="2">
+        <v>112</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>112</v>
+      </c>
+      <c r="BI6" s="2">
+        <v>112</v>
+      </c>
+      <c r="BJ6" s="2">
+        <v>112</v>
+      </c>
+      <c r="BK6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BL6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BM6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BN6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BO6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BP6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BQ6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BR6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BS6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BT6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BU6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BV6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BW6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY6" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ6" s="2">
+        <v>101</v>
       </c>
       <c r="CA6" s="2">
         <v>101</v>
@@ -7874,7 +8054,7 @@
       </c>
     </row>
     <row r="7" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
+      <c r="A7" s="10">
         <v>102</v>
       </c>
       <c r="B7" s="3">
@@ -7911,7 +8091,7 @@
         <v>102</v>
       </c>
       <c r="M7" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N7" s="3">
         <v>112</v>
@@ -7935,16 +8115,16 @@
         <v>112</v>
       </c>
       <c r="U7" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="V7" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="W7" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="X7" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Y7" s="3">
         <v>102</v>
@@ -7986,127 +8166,127 @@
         <v>102</v>
       </c>
       <c r="AL7" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AM7" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AN7" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AO7" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AP7" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ7" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR7" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS7" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AT7" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AU7" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AV7" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AW7" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AX7" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY7" s="3">
-        <v>102</v>
-      </c>
-      <c r="AZ7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BA7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BB7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BC7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BD7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BE7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BF7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BG7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BH7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BI7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BJ7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BK7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BL7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BM7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BN7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BO7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BP7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BQ7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BR7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BS7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BT7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BU7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BV7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BW7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BX7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BY7" s="3">
-        <v>102</v>
-      </c>
-      <c r="BZ7" s="3">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="AZ7" s="11">
+        <v>101</v>
+      </c>
+      <c r="BA7" s="15">
+        <v>101</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BC7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BG7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>112</v>
+      </c>
+      <c r="BI7" s="2">
+        <v>112</v>
+      </c>
+      <c r="BJ7" s="2">
+        <v>112</v>
+      </c>
+      <c r="BK7" s="2">
+        <v>112</v>
+      </c>
+      <c r="BL7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BN7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BO7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BP7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BQ7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BR7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BS7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BU7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BV7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BW7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ7" s="2">
+        <v>101</v>
       </c>
       <c r="CA7" s="2">
         <v>101</v>
@@ -9094,7 +9274,7 @@
       </c>
     </row>
     <row r="8" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
+      <c r="A8" s="10">
         <v>102</v>
       </c>
       <c r="B8" s="3">
@@ -9155,19 +9335,19 @@
         <v>112</v>
       </c>
       <c r="U8" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="V8" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="W8" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="X8" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Y8" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Z8" s="3">
         <v>102</v>
@@ -9212,121 +9392,121 @@
         <v>102</v>
       </c>
       <c r="AN8" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AO8" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AP8" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ8" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR8" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS8" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AT8" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AU8" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AV8" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AW8" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AX8" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY8" s="3">
-        <v>102</v>
-      </c>
-      <c r="AZ8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BA8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BB8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BC8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BD8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BE8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BF8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BG8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BH8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BI8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BJ8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BK8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BL8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BM8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BN8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BO8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BP8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BQ8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BR8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BS8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BT8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BU8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BV8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BW8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BX8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BY8" s="3">
-        <v>102</v>
-      </c>
-      <c r="BZ8" s="3">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="AZ8" s="11">
+        <v>101</v>
+      </c>
+      <c r="BA8" s="15">
+        <v>101</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BC8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BF8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BG8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BI8" s="2">
+        <v>112</v>
+      </c>
+      <c r="BJ8" s="2">
+        <v>112</v>
+      </c>
+      <c r="BK8" s="2">
+        <v>112</v>
+      </c>
+      <c r="BL8" s="2">
+        <v>112</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BN8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BO8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BP8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BQ8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BR8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BS8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BU8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BV8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BW8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ8" s="2">
+        <v>101</v>
       </c>
       <c r="CA8" s="2">
         <v>101</v>
@@ -10314,7 +10494,7 @@
       </c>
     </row>
     <row r="9" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
+      <c r="A9" s="10">
         <v>102</v>
       </c>
       <c r="B9" s="3">
@@ -10369,25 +10549,25 @@
         <v>112</v>
       </c>
       <c r="S9" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T9" s="3">
         <v>112</v>
       </c>
       <c r="U9" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="V9" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="W9" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="X9" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Y9" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Z9" s="3">
         <v>102</v>
@@ -10432,121 +10612,121 @@
         <v>102</v>
       </c>
       <c r="AN9" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO9" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP9" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ9" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR9" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AS9" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AT9" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AU9" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AV9" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AW9" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AX9" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AY9" s="3">
-        <v>102</v>
-      </c>
-      <c r="AZ9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BA9" s="3">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="AZ9" s="11">
+        <v>103</v>
+      </c>
+      <c r="BA9" s="6">
+        <v>103</v>
       </c>
       <c r="BB9" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BC9" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BD9" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BE9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BF9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BG9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BH9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BI9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BJ9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BK9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BL9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BM9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BN9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BO9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BP9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BQ9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BR9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BS9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BT9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BU9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BV9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BW9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BX9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BY9" s="3">
-        <v>102</v>
-      </c>
-      <c r="BZ9" s="3">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="BF9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BG9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BI9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BJ9" s="2">
+        <v>112</v>
+      </c>
+      <c r="BK9" s="2">
+        <v>112</v>
+      </c>
+      <c r="BL9" s="2">
+        <v>112</v>
+      </c>
+      <c r="BM9" s="2">
+        <v>112</v>
+      </c>
+      <c r="BN9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BO9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BP9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BQ9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BR9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BS9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BU9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BV9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BW9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ9" s="2">
+        <v>101</v>
       </c>
       <c r="CA9" s="2">
         <v>101</v>
@@ -11534,7 +11714,7 @@
       </c>
     </row>
     <row r="10" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
+      <c r="A10" s="10">
         <v>102</v>
       </c>
       <c r="B10" s="3">
@@ -11595,19 +11775,19 @@
         <v>112</v>
       </c>
       <c r="U10" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="V10" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="W10" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="X10" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Y10" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Z10" s="3">
         <v>102</v>
@@ -11649,124 +11829,124 @@
         <v>102</v>
       </c>
       <c r="AM10" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN10" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO10" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP10" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ10" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR10" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS10" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AT10" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AU10" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AV10" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AW10" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AX10" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AY10" s="3">
-        <v>102</v>
-      </c>
-      <c r="AZ10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BA10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BB10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BC10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BD10" s="3">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="AZ10" s="11">
+        <v>111</v>
+      </c>
+      <c r="BA10" s="15">
+        <v>111</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>111</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>111</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>111</v>
       </c>
       <c r="BE10" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BF10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BG10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BH10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BI10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BJ10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BK10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BL10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BM10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BN10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BO10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BP10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BQ10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BR10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BS10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BT10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BU10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BV10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BW10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BX10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BY10" s="3">
-        <v>102</v>
-      </c>
-      <c r="BZ10" s="3">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>101</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>101</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>101</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>101</v>
+      </c>
+      <c r="BK10" s="2">
+        <v>112</v>
+      </c>
+      <c r="BL10" s="2">
+        <v>112</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>112</v>
+      </c>
+      <c r="BN10" s="2">
+        <v>112</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>112</v>
+      </c>
+      <c r="BP10" s="2">
+        <v>112</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>112</v>
+      </c>
+      <c r="BR10" s="2">
+        <v>112</v>
+      </c>
+      <c r="BS10" s="2">
+        <v>112</v>
+      </c>
+      <c r="BT10" s="2">
+        <v>112</v>
+      </c>
+      <c r="BU10" s="2">
+        <v>112</v>
+      </c>
+      <c r="BV10" s="2">
+        <v>112</v>
+      </c>
+      <c r="BW10" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX10" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY10" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ10" s="2">
+        <v>101</v>
       </c>
       <c r="CA10" s="2">
         <v>101</v>
@@ -12754,7 +12934,7 @@
       </c>
     </row>
     <row r="11" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
+      <c r="A11" s="10">
         <v>102</v>
       </c>
       <c r="B11" s="3">
@@ -12812,19 +12992,19 @@
         <v>112</v>
       </c>
       <c r="T11" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="U11" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="V11" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="W11" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="X11" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Y11" s="3">
         <v>102</v>
@@ -12866,127 +13046,127 @@
         <v>102</v>
       </c>
       <c r="AL11" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AM11" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN11" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO11" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP11" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ11" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR11" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS11" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AT11" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AU11" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AV11" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AW11" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AX11" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AY11" s="3">
-        <v>102</v>
-      </c>
-      <c r="AZ11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BA11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BB11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BC11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BD11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BE11" s="3">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="AZ11" s="11">
+        <v>111</v>
+      </c>
+      <c r="BA11" s="15">
+        <v>111</v>
+      </c>
+      <c r="BB11" s="2">
+        <v>111</v>
+      </c>
+      <c r="BC11" s="2">
+        <v>111</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>111</v>
+      </c>
+      <c r="BE11" s="2">
+        <v>111</v>
       </c>
       <c r="BF11" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BG11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BH11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BI11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BJ11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BK11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BL11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BM11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BN11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BO11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BP11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BQ11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BR11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BS11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BT11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BU11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BV11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BW11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BX11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BY11" s="3">
-        <v>102</v>
-      </c>
-      <c r="BZ11" s="3">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="BH11" s="2">
+        <v>101</v>
+      </c>
+      <c r="BI11" s="2">
+        <v>101</v>
+      </c>
+      <c r="BJ11" s="2">
+        <v>101</v>
+      </c>
+      <c r="BK11" s="2">
+        <v>101</v>
+      </c>
+      <c r="BL11" s="2">
+        <v>112</v>
+      </c>
+      <c r="BM11" s="2">
+        <v>112</v>
+      </c>
+      <c r="BN11" s="2">
+        <v>112</v>
+      </c>
+      <c r="BO11" s="2">
+        <v>112</v>
+      </c>
+      <c r="BP11" s="2">
+        <v>112</v>
+      </c>
+      <c r="BQ11" s="2">
+        <v>112</v>
+      </c>
+      <c r="BR11" s="2">
+        <v>112</v>
+      </c>
+      <c r="BS11" s="2">
+        <v>112</v>
+      </c>
+      <c r="BT11" s="2">
+        <v>112</v>
+      </c>
+      <c r="BU11" s="2">
+        <v>112</v>
+      </c>
+      <c r="BV11" s="2">
+        <v>112</v>
+      </c>
+      <c r="BW11" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX11" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY11" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ11" s="2">
+        <v>101</v>
       </c>
       <c r="CA11" s="2">
         <v>101</v>
@@ -13974,7 +14154,7 @@
       </c>
     </row>
     <row r="12" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
+      <c r="A12" s="10">
         <v>102</v>
       </c>
       <c r="B12" s="3">
@@ -14014,7 +14194,7 @@
         <v>102</v>
       </c>
       <c r="N12" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O12" s="3">
         <v>112</v>
@@ -14029,22 +14209,22 @@
         <v>112</v>
       </c>
       <c r="S12" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="T12" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="U12" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="V12" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="W12" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="X12" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Y12" s="3">
         <v>102</v>
@@ -14074,139 +14254,139 @@
         <v>102</v>
       </c>
       <c r="AH12" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AI12" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AJ12" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AK12" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AL12" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AM12" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN12" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO12" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP12" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ12" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR12" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AS12" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AT12" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AU12" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AV12" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AW12" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AX12" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AY12" s="3">
-        <v>102</v>
-      </c>
-      <c r="AZ12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BA12" s="3">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="AZ12" s="11">
+        <v>111</v>
+      </c>
+      <c r="BA12" s="6">
+        <v>111</v>
       </c>
       <c r="BB12" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="BC12" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="BD12" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="BE12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BF12" s="3">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="BF12" s="2">
+        <v>111</v>
       </c>
       <c r="BG12" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BH12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BI12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BJ12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BK12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BL12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BM12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BN12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BO12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BP12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BQ12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BR12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BS12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BT12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BU12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BV12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BW12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BX12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BY12" s="3">
-        <v>102</v>
-      </c>
-      <c r="BZ12" s="3">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="BI12" s="2">
+        <v>101</v>
+      </c>
+      <c r="BJ12" s="2">
+        <v>101</v>
+      </c>
+      <c r="BK12" s="2">
+        <v>101</v>
+      </c>
+      <c r="BL12" s="2">
+        <v>101</v>
+      </c>
+      <c r="BM12" s="2">
+        <v>112</v>
+      </c>
+      <c r="BN12" s="2">
+        <v>112</v>
+      </c>
+      <c r="BO12" s="2">
+        <v>112</v>
+      </c>
+      <c r="BP12" s="2">
+        <v>112</v>
+      </c>
+      <c r="BQ12" s="2">
+        <v>112</v>
+      </c>
+      <c r="BR12" s="2">
+        <v>112</v>
+      </c>
+      <c r="BS12" s="2">
+        <v>112</v>
+      </c>
+      <c r="BT12" s="2">
+        <v>112</v>
+      </c>
+      <c r="BU12" s="2">
+        <v>112</v>
+      </c>
+      <c r="BV12" s="2">
+        <v>112</v>
+      </c>
+      <c r="BW12" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX12" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY12" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ12" s="2">
+        <v>101</v>
       </c>
       <c r="CA12" s="2">
         <v>101</v>
@@ -15194,7 +15374,7 @@
       </c>
     </row>
     <row r="13" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
+      <c r="A13" s="10">
         <v>102</v>
       </c>
       <c r="B13" s="3">
@@ -15237,31 +15417,31 @@
         <v>102</v>
       </c>
       <c r="O13" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="P13" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="R13" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="S13" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="T13" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="U13" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="V13" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="W13" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="X13" s="3">
         <v>102</v>
@@ -15291,142 +15471,142 @@
         <v>102</v>
       </c>
       <c r="AG13" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AH13" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AI13" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AJ13" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AK13" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AL13" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AM13" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AN13" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO13" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP13" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ13" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR13" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AS13" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AT13" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AU13" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AV13" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AW13" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AX13" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AY13" s="3">
-        <v>102</v>
-      </c>
-      <c r="AZ13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BA13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BB13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BC13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BD13" s="3">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="AZ13" s="11">
+        <v>111</v>
+      </c>
+      <c r="BA13" s="15">
+        <v>111</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>111</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>111</v>
+      </c>
+      <c r="BD13" s="2">
+        <v>111</v>
       </c>
       <c r="BE13" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="BF13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BG13" s="3">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="BG13" s="2">
+        <v>111</v>
       </c>
       <c r="BH13" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="BI13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BJ13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BK13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BL13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BM13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BN13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BO13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BP13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BQ13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BR13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BS13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BT13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BU13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BV13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BW13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BX13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BY13" s="3">
-        <v>102</v>
-      </c>
-      <c r="BZ13" s="3">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BK13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BL13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BM13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BN13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BO13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BP13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BQ13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BR13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BS13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BT13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BU13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BV13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BW13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ13" s="2">
+        <v>101</v>
       </c>
       <c r="CA13" s="2">
         <v>101</v>
@@ -16414,14 +16594,14 @@
       </c>
     </row>
     <row r="14" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A14" s="3">
-        <v>102</v>
+      <c r="A14" s="10">
+        <v>112</v>
       </c>
       <c r="B14" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D14" s="3">
         <v>102</v>
@@ -16460,25 +16640,25 @@
         <v>102</v>
       </c>
       <c r="P14" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="R14" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="S14" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="T14" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="U14" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="V14" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="W14" s="3">
         <v>102</v>
@@ -16508,145 +16688,145 @@
         <v>102</v>
       </c>
       <c r="AF14" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG14" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AH14" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AI14" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AJ14" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AK14" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AL14" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AM14" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AN14" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AO14" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP14" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ14" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR14" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AS14" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AT14" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AU14" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AV14" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AW14" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AX14" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AY14" s="3">
-        <v>102</v>
-      </c>
-      <c r="AZ14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BA14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BB14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BC14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BD14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BE14" s="3">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="AZ14" s="11">
+        <v>111</v>
+      </c>
+      <c r="BA14" s="15">
+        <v>111</v>
+      </c>
+      <c r="BB14" s="2">
+        <v>111</v>
+      </c>
+      <c r="BC14" s="2">
+        <v>111</v>
+      </c>
+      <c r="BD14" s="2">
+        <v>111</v>
+      </c>
+      <c r="BE14" s="2">
+        <v>111</v>
       </c>
       <c r="BF14" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="BG14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BH14" s="3">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="BH14" s="2">
+        <v>111</v>
       </c>
       <c r="BI14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BJ14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BK14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BL14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BM14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BN14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BO14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BP14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BQ14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BR14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BS14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BT14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BU14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BV14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BW14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BX14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BY14" s="3">
-        <v>102</v>
-      </c>
-      <c r="BZ14" s="3">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="BJ14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BK14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BL14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BM14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BN14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BO14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BP14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BQ14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BR14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BS14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BT14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BU14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BV14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BW14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ14" s="2">
+        <v>101</v>
       </c>
       <c r="CA14" s="2">
         <v>101</v>
@@ -17634,20 +17814,20 @@
       </c>
     </row>
     <row r="15" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
-        <v>102</v>
+      <c r="A15" s="10">
+        <v>112</v>
       </c>
       <c r="B15" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D15" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E15" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F15" s="3">
         <v>102</v>
@@ -17686,13 +17866,13 @@
         <v>102</v>
       </c>
       <c r="R15" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="S15" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="T15" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="U15" s="3">
         <v>102</v>
@@ -17725,148 +17905,148 @@
         <v>102</v>
       </c>
       <c r="AE15" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF15" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AG15" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AH15" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AI15" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AJ15" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AK15" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AL15" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AM15" s="3">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AN15" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AO15" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AP15" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ15" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR15" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AS15" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AT15" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AU15" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AV15" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AW15" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AX15" s="3">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="AY15" s="3">
-        <v>102</v>
-      </c>
-      <c r="AZ15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BA15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BB15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BC15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BD15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BE15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BF15" s="3">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="AZ15" s="11">
+        <v>111</v>
+      </c>
+      <c r="BA15" s="15">
+        <v>111</v>
+      </c>
+      <c r="BB15" s="2">
+        <v>111</v>
+      </c>
+      <c r="BC15" s="2">
+        <v>111</v>
+      </c>
+      <c r="BD15" s="2">
+        <v>111</v>
+      </c>
+      <c r="BE15" s="2">
+        <v>111</v>
+      </c>
+      <c r="BF15" s="2">
+        <v>111</v>
       </c>
       <c r="BG15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BH15" s="3">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="BH15" s="2">
+        <v>111</v>
       </c>
       <c r="BI15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BJ15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BK15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BL15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BM15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BN15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BO15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BP15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BQ15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BR15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BS15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BT15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BU15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BV15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BW15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BX15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BY15" s="3">
-        <v>102</v>
-      </c>
-      <c r="BZ15" s="3">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="BJ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BK15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BL15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BM15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BN15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BO15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BP15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BQ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BR15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BS15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BT15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BU15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BV15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BW15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ15" s="2">
+        <v>101</v>
       </c>
       <c r="CA15" s="2">
         <v>101</v>
@@ -18853,240 +19033,240 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A16" s="3">
-        <v>102</v>
-      </c>
-      <c r="B16" s="3">
-        <v>102</v>
-      </c>
-      <c r="C16" s="3">
-        <v>102</v>
-      </c>
-      <c r="D16" s="3">
-        <v>102</v>
-      </c>
-      <c r="E16" s="3">
-        <v>102</v>
-      </c>
-      <c r="F16" s="3">
-        <v>102</v>
-      </c>
-      <c r="G16" s="3">
-        <v>102</v>
-      </c>
-      <c r="H16" s="3">
-        <v>102</v>
-      </c>
-      <c r="I16" s="3">
-        <v>102</v>
-      </c>
-      <c r="J16" s="3">
-        <v>102</v>
-      </c>
-      <c r="K16" s="3">
-        <v>102</v>
-      </c>
-      <c r="L16" s="3">
-        <v>102</v>
-      </c>
-      <c r="M16" s="3">
-        <v>102</v>
-      </c>
-      <c r="N16" s="3">
-        <v>102</v>
-      </c>
-      <c r="O16" s="3">
-        <v>102</v>
-      </c>
-      <c r="P16" s="3">
-        <v>102</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>102</v>
-      </c>
-      <c r="R16" s="3">
-        <v>102</v>
-      </c>
-      <c r="S16" s="3">
-        <v>102</v>
-      </c>
-      <c r="T16" s="3">
-        <v>102</v>
-      </c>
-      <c r="U16" s="3">
-        <v>102</v>
-      </c>
-      <c r="V16" s="3">
-        <v>102</v>
-      </c>
-      <c r="W16" s="3">
-        <v>102</v>
-      </c>
-      <c r="X16" s="3">
-        <v>102</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>102</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AE16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AF16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AG16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AH16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AI16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AJ16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AK16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AL16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AN16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AO16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AP16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AQ16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AR16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AS16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AT16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AU16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AV16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AW16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AX16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AY16" s="3">
-        <v>102</v>
-      </c>
-      <c r="AZ16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BA16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BB16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BC16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BD16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BE16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BF16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BG16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BH16" s="3">
-        <v>102</v>
+    <row r="16" spans="1:406" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="12">
+        <v>112</v>
+      </c>
+      <c r="B16" s="13">
+        <v>112</v>
+      </c>
+      <c r="C16" s="13">
+        <v>112</v>
+      </c>
+      <c r="D16" s="13">
+        <v>112</v>
+      </c>
+      <c r="E16" s="13">
+        <v>112</v>
+      </c>
+      <c r="F16" s="13">
+        <v>112</v>
+      </c>
+      <c r="G16" s="13">
+        <v>112</v>
+      </c>
+      <c r="H16" s="13">
+        <v>102</v>
+      </c>
+      <c r="I16" s="13">
+        <v>102</v>
+      </c>
+      <c r="J16" s="13">
+        <v>102</v>
+      </c>
+      <c r="K16" s="13">
+        <v>102</v>
+      </c>
+      <c r="L16" s="13">
+        <v>102</v>
+      </c>
+      <c r="M16" s="13">
+        <v>102</v>
+      </c>
+      <c r="N16" s="13">
+        <v>102</v>
+      </c>
+      <c r="O16" s="13">
+        <v>102</v>
+      </c>
+      <c r="P16" s="13">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>102</v>
+      </c>
+      <c r="R16" s="13">
+        <v>102</v>
+      </c>
+      <c r="S16" s="13">
+        <v>102</v>
+      </c>
+      <c r="T16" s="13">
+        <v>102</v>
+      </c>
+      <c r="U16" s="13">
+        <v>102</v>
+      </c>
+      <c r="V16" s="13">
+        <v>102</v>
+      </c>
+      <c r="W16" s="13">
+        <v>102</v>
+      </c>
+      <c r="X16" s="13">
+        <v>102</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>102</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>102</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>102</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>102</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>102</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>102</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>103</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>112</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>112</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>112</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>101</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>101</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>101</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>101</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>101</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>101</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>101</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>101</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>101</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>103</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>111</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>111</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>111</v>
+      </c>
+      <c r="AV16" s="13">
+        <v>111</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>111</v>
+      </c>
+      <c r="AX16" s="13">
+        <v>111</v>
+      </c>
+      <c r="AY16" s="13">
+        <v>111</v>
+      </c>
+      <c r="AZ16" s="14">
+        <v>111</v>
+      </c>
+      <c r="BA16" s="6">
+        <v>111</v>
+      </c>
+      <c r="BB16" s="2">
+        <v>111</v>
+      </c>
+      <c r="BC16" s="2">
+        <v>111</v>
+      </c>
+      <c r="BD16" s="2">
+        <v>111</v>
+      </c>
+      <c r="BE16" s="2">
+        <v>111</v>
+      </c>
+      <c r="BF16" s="2">
+        <v>111</v>
+      </c>
+      <c r="BG16" s="2">
+        <v>111</v>
+      </c>
+      <c r="BH16" s="2">
+        <v>111</v>
       </c>
       <c r="BI16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BJ16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BK16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BL16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BM16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BN16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BO16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BP16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BQ16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BR16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BS16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BT16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BU16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BV16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BW16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BX16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BY16" s="3">
-        <v>102</v>
-      </c>
-      <c r="BZ16" s="3">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="BJ16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BK16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BL16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BM16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BN16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BO16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BP16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BQ16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BR16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BS16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BT16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BU16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BV16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BW16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ16" s="2">
+        <v>101</v>
       </c>
       <c r="CA16" s="2">
         <v>101</v>

--- a/Excel/SecondGround.xlsx
+++ b/Excel/SecondGround.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCCA907-3F9F-42B1-88E7-23B8F263FA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E9250B-B1E5-43DC-89BA-D23BFE9D9C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10596" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="19560" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -725,7 +725,7 @@
   <dimension ref="A1:OP16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="BA15" sqref="BA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2066,7 +2066,7 @@
         <v>112</v>
       </c>
       <c r="AL2" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM2" s="3">
         <v>101</v>
@@ -3226,13 +3226,13 @@
         <v>102</v>
       </c>
       <c r="R3" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="S3" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T3" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="U3" s="3">
         <v>102</v>
@@ -3286,7 +3286,7 @@
         <v>112</v>
       </c>
       <c r="AL3" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM3" s="3">
         <v>101</v>
@@ -4440,10 +4440,10 @@
         <v>102</v>
       </c>
       <c r="P4" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="R4" s="3">
         <v>112</v>
@@ -4455,10 +4455,10 @@
         <v>112</v>
       </c>
       <c r="U4" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="V4" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="W4" s="3">
         <v>102</v>
@@ -4509,7 +4509,7 @@
         <v>112</v>
       </c>
       <c r="AM4" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AN4" s="3">
         <v>101</v>
@@ -5657,7 +5657,7 @@
         <v>102</v>
       </c>
       <c r="O5" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="P5" s="3">
         <v>112</v>
@@ -5681,7 +5681,7 @@
         <v>112</v>
       </c>
       <c r="W5" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="X5" s="3">
         <v>102</v>
@@ -5732,7 +5732,7 @@
         <v>112</v>
       </c>
       <c r="AN5" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AO5" s="3">
         <v>101</v>
@@ -6874,7 +6874,7 @@
         <v>102</v>
       </c>
       <c r="N6" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O6" s="3">
         <v>112</v>
@@ -6904,7 +6904,7 @@
         <v>112</v>
       </c>
       <c r="X6" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Y6" s="3">
         <v>102</v>
@@ -6955,7 +6955,7 @@
         <v>112</v>
       </c>
       <c r="AO6" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AP6" s="3">
         <v>101</v>
@@ -8094,7 +8094,7 @@
         <v>102</v>
       </c>
       <c r="N7" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O7" s="3">
         <v>112</v>
@@ -8124,7 +8124,7 @@
         <v>112</v>
       </c>
       <c r="X7" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Y7" s="3">
         <v>102</v>
@@ -8178,7 +8178,7 @@
         <v>112</v>
       </c>
       <c r="AP7" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AQ7" s="3">
         <v>101</v>
@@ -8187,13 +8187,13 @@
         <v>101</v>
       </c>
       <c r="AS7" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AT7" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AU7" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AV7" s="3">
         <v>101</v>
@@ -9311,7 +9311,7 @@
         <v>102</v>
       </c>
       <c r="M8" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N8" s="3">
         <v>112</v>
@@ -9347,7 +9347,7 @@
         <v>112</v>
       </c>
       <c r="Y8" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Z8" s="3">
         <v>102</v>
@@ -9389,7 +9389,7 @@
         <v>102</v>
       </c>
       <c r="AM8" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN8" s="3">
         <v>112</v>
@@ -9398,7 +9398,7 @@
         <v>112</v>
       </c>
       <c r="AP8" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AQ8" s="3">
         <v>101</v>
@@ -9407,16 +9407,16 @@
         <v>101</v>
       </c>
       <c r="AS8" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AT8" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AU8" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AV8" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AW8" s="3">
         <v>101</v>
@@ -10531,7 +10531,7 @@
         <v>102</v>
       </c>
       <c r="M9" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N9" s="3">
         <v>112</v>
@@ -10567,7 +10567,7 @@
         <v>112</v>
       </c>
       <c r="Y9" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Z9" s="3">
         <v>102</v>
@@ -10612,10 +10612,10 @@
         <v>102</v>
       </c>
       <c r="AN9" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AO9" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AP9" s="3">
         <v>101</v>
@@ -10624,46 +10624,46 @@
         <v>101</v>
       </c>
       <c r="AR9" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AS9" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AT9" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AU9" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AV9" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AW9" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AX9" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AY9" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AZ9" s="11">
-        <v>103</v>
-      </c>
-      <c r="BA9" s="6">
-        <v>103</v>
-      </c>
-      <c r="BB9" s="3">
-        <v>103</v>
-      </c>
-      <c r="BC9" s="3">
-        <v>103</v>
-      </c>
-      <c r="BD9" s="3">
-        <v>103</v>
-      </c>
-      <c r="BE9" s="3">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="BA9" s="15">
+        <v>101</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BC9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BE9" s="2">
+        <v>101</v>
       </c>
       <c r="BF9" s="2">
         <v>101</v>
@@ -11751,7 +11751,7 @@
         <v>102</v>
       </c>
       <c r="M10" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N10" s="3">
         <v>112</v>
@@ -11787,7 +11787,7 @@
         <v>112</v>
       </c>
       <c r="Y10" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Z10" s="3">
         <v>102</v>
@@ -11847,46 +11847,46 @@
         <v>101</v>
       </c>
       <c r="AS10" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AT10" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AU10" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AV10" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AW10" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AX10" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AY10" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AZ10" s="11">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BA10" s="15">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BB10" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BC10" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BD10" s="2">
-        <v>111</v>
-      </c>
-      <c r="BE10" s="3">
-        <v>103</v>
-      </c>
-      <c r="BF10" s="3">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>101</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>101</v>
       </c>
       <c r="BG10" s="2">
         <v>101</v>
@@ -12974,7 +12974,7 @@
         <v>102</v>
       </c>
       <c r="N11" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O11" s="3">
         <v>112</v>
@@ -13004,7 +13004,7 @@
         <v>112</v>
       </c>
       <c r="X11" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Y11" s="3">
         <v>102</v>
@@ -13037,13 +13037,13 @@
         <v>102</v>
       </c>
       <c r="AI11" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AJ11" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK11" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AL11" s="3">
         <v>101</v>
@@ -13070,46 +13070,46 @@
         <v>101</v>
       </c>
       <c r="AT11" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AU11" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AV11" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AW11" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AX11" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AY11" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AZ11" s="11">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BA11" s="15">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BB11" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BC11" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BD11" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BE11" s="2">
-        <v>111</v>
-      </c>
-      <c r="BF11" s="3">
-        <v>103</v>
-      </c>
-      <c r="BG11" s="3">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="BF11" s="2">
+        <v>101</v>
+      </c>
+      <c r="BG11" s="2">
+        <v>101</v>
       </c>
       <c r="BH11" s="2">
         <v>101</v>
@@ -14194,7 +14194,7 @@
         <v>102</v>
       </c>
       <c r="N12" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O12" s="3">
         <v>112</v>
@@ -14224,7 +14224,7 @@
         <v>112</v>
       </c>
       <c r="X12" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Y12" s="3">
         <v>102</v>
@@ -14266,7 +14266,7 @@
         <v>112</v>
       </c>
       <c r="AL12" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM12" s="3">
         <v>101</v>
@@ -14287,52 +14287,52 @@
         <v>101</v>
       </c>
       <c r="AS12" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AT12" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AU12" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AV12" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AW12" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AX12" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AY12" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AZ12" s="11">
-        <v>111</v>
-      </c>
-      <c r="BA12" s="6">
-        <v>111</v>
-      </c>
-      <c r="BB12" s="3">
-        <v>111</v>
-      </c>
-      <c r="BC12" s="3">
-        <v>111</v>
-      </c>
-      <c r="BD12" s="3">
-        <v>111</v>
-      </c>
-      <c r="BE12" s="3">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="BA12" s="15">
+        <v>101</v>
+      </c>
+      <c r="BB12" s="2">
+        <v>101</v>
+      </c>
+      <c r="BC12" s="2">
+        <v>101</v>
+      </c>
+      <c r="BD12" s="2">
+        <v>101</v>
+      </c>
+      <c r="BE12" s="2">
+        <v>101</v>
       </c>
       <c r="BF12" s="2">
-        <v>111</v>
-      </c>
-      <c r="BG12" s="3">
-        <v>103</v>
-      </c>
-      <c r="BH12" s="3">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>101</v>
+      </c>
+      <c r="BH12" s="2">
+        <v>101</v>
       </c>
       <c r="BI12" s="2">
         <v>101</v>
@@ -15417,7 +15417,7 @@
         <v>102</v>
       </c>
       <c r="O13" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="P13" s="3">
         <v>112</v>
@@ -15441,7 +15441,7 @@
         <v>112</v>
       </c>
       <c r="W13" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="X13" s="3">
         <v>102</v>
@@ -15483,7 +15483,7 @@
         <v>112</v>
       </c>
       <c r="AK13" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AL13" s="3">
         <v>101</v>
@@ -15504,25 +15504,25 @@
         <v>101</v>
       </c>
       <c r="AR13" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AS13" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AT13" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AU13" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AV13" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AW13" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AX13" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AY13" s="3">
         <v>111</v>
@@ -15537,25 +15537,25 @@
         <v>111</v>
       </c>
       <c r="BC13" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BD13" s="2">
-        <v>111</v>
-      </c>
-      <c r="BE13" s="3">
-        <v>111</v>
-      </c>
-      <c r="BF13" s="3">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="BE13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BF13" s="2">
+        <v>101</v>
       </c>
       <c r="BG13" s="2">
-        <v>111</v>
-      </c>
-      <c r="BH13" s="3">
-        <v>103</v>
-      </c>
-      <c r="BI13" s="3">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="BH13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>101</v>
       </c>
       <c r="BJ13" s="2">
         <v>101</v>
@@ -16640,10 +16640,10 @@
         <v>102</v>
       </c>
       <c r="P14" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="R14" s="3">
         <v>112</v>
@@ -16655,10 +16655,10 @@
         <v>112</v>
       </c>
       <c r="U14" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="V14" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="W14" s="3">
         <v>102</v>
@@ -16700,7 +16700,7 @@
         <v>112</v>
       </c>
       <c r="AJ14" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AK14" s="3">
         <v>101</v>
@@ -16724,22 +16724,22 @@
         <v>101</v>
       </c>
       <c r="AR14" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AS14" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AT14" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AU14" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AV14" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AW14" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AX14" s="3">
         <v>111</v>
@@ -16760,22 +16760,22 @@
         <v>111</v>
       </c>
       <c r="BD14" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BE14" s="2">
-        <v>111</v>
-      </c>
-      <c r="BF14" s="3">
-        <v>111</v>
-      </c>
-      <c r="BG14" s="3">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="BF14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BG14" s="2">
+        <v>101</v>
       </c>
       <c r="BH14" s="2">
-        <v>111</v>
-      </c>
-      <c r="BI14" s="3">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="BI14" s="2">
+        <v>101</v>
       </c>
       <c r="BJ14" s="2">
         <v>101</v>
@@ -17866,13 +17866,13 @@
         <v>102</v>
       </c>
       <c r="R15" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="S15" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T15" s="3">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="U15" s="3">
         <v>102</v>
@@ -17917,7 +17917,7 @@
         <v>112</v>
       </c>
       <c r="AI15" s="3">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AJ15" s="3">
         <v>101</v>
@@ -17944,19 +17944,19 @@
         <v>101</v>
       </c>
       <c r="AR15" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AS15" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AT15" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AU15" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AV15" s="3">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AW15" s="3">
         <v>111</v>
@@ -17983,19 +17983,19 @@
         <v>111</v>
       </c>
       <c r="BE15" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BF15" s="2">
-        <v>111</v>
-      </c>
-      <c r="BG15" s="3">
-        <v>111</v>
+        <v>101</v>
+      </c>
+      <c r="BG15" s="2">
+        <v>101</v>
       </c>
       <c r="BH15" s="2">
-        <v>111</v>
-      </c>
-      <c r="BI15" s="3">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="BI15" s="2">
+        <v>101</v>
       </c>
       <c r="BJ15" s="2">
         <v>101</v>
@@ -19137,7 +19137,7 @@
         <v>112</v>
       </c>
       <c r="AI16" s="13">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AJ16" s="13">
         <v>101</v>
@@ -19164,19 +19164,19 @@
         <v>101</v>
       </c>
       <c r="AR16" s="13">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AS16" s="13">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AT16" s="13">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AU16" s="13">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AV16" s="13">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AW16" s="13">
         <v>111</v>
@@ -19203,19 +19203,19 @@
         <v>111</v>
       </c>
       <c r="BE16" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BF16" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BG16" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BH16" s="2">
-        <v>111</v>
-      </c>
-      <c r="BI16" s="3">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="BI16" s="2">
+        <v>101</v>
       </c>
       <c r="BJ16" s="2">
         <v>101</v>

--- a/Excel/SecondGround.xlsx
+++ b/Excel/SecondGround.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E9250B-B1E5-43DC-89BA-D23BFE9D9C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1A19AC-D31A-4E59-89B4-5ABF452DC5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="19560" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
@@ -725,7 +725,7 @@
   <dimension ref="A1:OP16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA15" sqref="BA15"/>
+      <selection activeCell="BC6" sqref="BC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2117,7 +2117,7 @@
         <v>101</v>
       </c>
       <c r="BC2" s="6">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BD2" s="6">
         <v>112</v>
@@ -3337,7 +3337,7 @@
         <v>101</v>
       </c>
       <c r="BC3" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="BD3" s="2">
         <v>112</v>
@@ -4554,13 +4554,13 @@
         <v>101</v>
       </c>
       <c r="BB4" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="BC4" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="BD4" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="BE4" s="2">
         <v>112</v>
@@ -5771,13 +5771,13 @@
         <v>101</v>
       </c>
       <c r="BA5" s="15">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="BB5" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="BC5" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="BD5" s="2">
         <v>101</v>
@@ -6988,13 +6988,13 @@
         <v>101</v>
       </c>
       <c r="AZ6" s="11">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="BA6" s="15">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="BB6" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="BC6" s="2">
         <v>101</v>
@@ -8205,13 +8205,13 @@
         <v>101</v>
       </c>
       <c r="AY7" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AZ7" s="11">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="BA7" s="15">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="BB7" s="2">
         <v>101</v>
@@ -9422,13 +9422,13 @@
         <v>101</v>
       </c>
       <c r="AX8" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AY8" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AZ8" s="11">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="BA8" s="15">
         <v>101</v>
@@ -10639,13 +10639,13 @@
         <v>101</v>
       </c>
       <c r="AW9" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AX9" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AY9" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AZ9" s="11">
         <v>101</v>
@@ -11856,13 +11856,13 @@
         <v>101</v>
       </c>
       <c r="AV10" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AW10" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AX10" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AY10" s="3">
         <v>101</v>
@@ -13037,13 +13037,13 @@
         <v>102</v>
       </c>
       <c r="AI11" s="3">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AJ11" s="3">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK11" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AL11" s="3">
         <v>101</v>
@@ -13073,13 +13073,13 @@
         <v>101</v>
       </c>
       <c r="AU11" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AV11" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AW11" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AX11" s="3">
         <v>101</v>
@@ -14290,13 +14290,13 @@
         <v>101</v>
       </c>
       <c r="AT12" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AU12" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AV12" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AW12" s="3">
         <v>101</v>
@@ -15507,13 +15507,13 @@
         <v>101</v>
       </c>
       <c r="AS13" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AT13" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AU13" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AV13" s="3">
         <v>101</v>
@@ -16724,13 +16724,13 @@
         <v>101</v>
       </c>
       <c r="AR14" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AS14" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AT14" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AU14" s="3">
         <v>101</v>
@@ -17941,13 +17941,13 @@
         <v>101</v>
       </c>
       <c r="AQ15" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AR15" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AS15" s="3">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AT15" s="3">
         <v>101</v>
@@ -19158,13 +19158,13 @@
         <v>101</v>
       </c>
       <c r="AP16" s="13">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AQ16" s="13">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AR16" s="13">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AS16" s="13">
         <v>101</v>

--- a/Excel/SecondGround.xlsx
+++ b/Excel/SecondGround.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1A19AC-D31A-4E59-89B4-5ABF452DC5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B93855A-556E-4F69-887B-448FEF338209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="19560" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
@@ -725,7 +725,7 @@
   <dimension ref="A1:OP16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC6" sqref="BC6"/>
+      <selection activeCell="BD5" sqref="BD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/Excel/SecondGround.xlsx
+++ b/Excel/SecondGround.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B93855A-556E-4F69-887B-448FEF338209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B770FB3-7141-467A-9BC7-1255BC9B2A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="19560" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -130,160 +130,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,39 +150,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:OP16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BD5" sqref="BD5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -734,163 +554,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:406" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8">
-        <v>0</v>
-      </c>
-      <c r="D1" s="8">
-        <v>0</v>
-      </c>
-      <c r="E1" s="8">
-        <v>0</v>
-      </c>
-      <c r="F1" s="8">
-        <v>0</v>
-      </c>
-      <c r="G1" s="8">
-        <v>0</v>
-      </c>
-      <c r="H1" s="8">
-        <v>0</v>
-      </c>
-      <c r="I1" s="8">
-        <v>0</v>
-      </c>
-      <c r="J1" s="8">
-        <v>0</v>
-      </c>
-      <c r="K1" s="8">
-        <v>0</v>
-      </c>
-      <c r="L1" s="8">
-        <v>0</v>
-      </c>
-      <c r="M1" s="8">
-        <v>0</v>
-      </c>
-      <c r="N1" s="8">
-        <v>0</v>
-      </c>
-      <c r="O1" s="8">
-        <v>0</v>
-      </c>
-      <c r="P1" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="8">
-        <v>0</v>
-      </c>
-      <c r="R1" s="8">
-        <v>0</v>
-      </c>
-      <c r="S1" s="8">
-        <v>0</v>
-      </c>
-      <c r="T1" s="8">
-        <v>0</v>
-      </c>
-      <c r="U1" s="8">
-        <v>0</v>
-      </c>
-      <c r="V1" s="8">
-        <v>0</v>
-      </c>
-      <c r="W1" s="8">
-        <v>0</v>
-      </c>
-      <c r="X1" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY1" s="8">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="9">
-        <v>0</v>
-      </c>
-      <c r="BA1" s="5">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4">
+        <v>0</v>
+      </c>
+      <c r="I1" s="4">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4">
+        <v>0</v>
+      </c>
+      <c r="M1" s="4">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4">
+        <v>0</v>
+      </c>
+      <c r="O1" s="4">
+        <v>0</v>
+      </c>
+      <c r="P1" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>0</v>
+      </c>
+      <c r="R1" s="4">
+        <v>0</v>
+      </c>
+      <c r="S1" s="4">
+        <v>0</v>
+      </c>
+      <c r="T1" s="4">
+        <v>0</v>
+      </c>
+      <c r="U1" s="4">
+        <v>0</v>
+      </c>
+      <c r="V1" s="4">
+        <v>0</v>
+      </c>
+      <c r="W1" s="4">
+        <v>0</v>
+      </c>
+      <c r="X1" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY1" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="4">
+        <v>0</v>
+      </c>
+      <c r="BA1" s="4">
         <v>0</v>
       </c>
       <c r="BB1" s="4">
@@ -1954,35 +1774,35 @@
       </c>
     </row>
     <row r="2" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A2" s="10">
-        <v>102</v>
+      <c r="A2" s="3">
+        <v>101</v>
       </c>
       <c r="B2" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G2" s="3">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H2" s="3">
         <v>112</v>
       </c>
       <c r="I2" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J2" s="3">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K2" s="3">
         <v>102</v>
@@ -1994,25 +1814,25 @@
         <v>102</v>
       </c>
       <c r="N2" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O2" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P2" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q2" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R2" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S2" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T2" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="U2" s="3">
         <v>102</v>
@@ -2029,166 +1849,166 @@
       <c r="Y2" s="3">
         <v>102</v>
       </c>
-      <c r="Z2" s="3">
-        <v>102</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>102</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>102</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>102</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>102</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>102</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>102</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>103</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>112</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>112</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>112</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>103</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>101</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>101</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>101</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>101</v>
-      </c>
-      <c r="AQ2" s="3">
-        <v>101</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>101</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>101</v>
-      </c>
-      <c r="AT2" s="3">
-        <v>101</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>101</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>101</v>
-      </c>
-      <c r="AW2" s="3">
-        <v>101</v>
-      </c>
-      <c r="AX2" s="3">
-        <v>101</v>
-      </c>
-      <c r="AY2" s="3">
-        <v>101</v>
-      </c>
-      <c r="AZ2" s="11">
-        <v>101</v>
-      </c>
-      <c r="BA2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BB2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BC2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BD2" s="6">
-        <v>112</v>
-      </c>
-      <c r="BE2" s="6">
-        <v>112</v>
-      </c>
-      <c r="BF2" s="6">
-        <v>112</v>
-      </c>
-      <c r="BG2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BH2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BI2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BJ2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BK2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BL2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BM2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BN2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BO2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BP2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BQ2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BR2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BS2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BT2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BU2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BV2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BW2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BX2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BY2" s="6">
-        <v>101</v>
-      </c>
-      <c r="BZ2" s="6">
-        <v>101</v>
-      </c>
-      <c r="CA2" s="6">
+      <c r="Z2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>111</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>111</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>111</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>111</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>111</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>111</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>111</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>111</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>111</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>111</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>111</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>111</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>111</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>111</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>111</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>111</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>101</v>
+      </c>
+      <c r="CA2" s="2">
         <v>101</v>
       </c>
       <c r="CB2" s="2">
@@ -3174,182 +2994,182 @@
       </c>
     </row>
     <row r="3" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A3" s="10">
+      <c r="A3" s="2">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2">
+        <v>101</v>
+      </c>
+      <c r="D3" s="2">
+        <v>101</v>
+      </c>
+      <c r="E3" s="2">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2">
+        <v>101</v>
+      </c>
+      <c r="G3" s="2">
+        <v>112</v>
+      </c>
+      <c r="H3" s="2">
+        <v>112</v>
+      </c>
+      <c r="I3" s="2">
+        <v>112</v>
+      </c>
+      <c r="J3" s="2">
+        <v>112</v>
+      </c>
+      <c r="K3" s="2">
+        <v>112</v>
+      </c>
+      <c r="L3" s="2">
         <v>102</v>
       </c>
-      <c r="B3" s="3">
+      <c r="M3" s="2">
         <v>102</v>
       </c>
-      <c r="C3" s="3">
+      <c r="N3" s="2">
+        <v>103</v>
+      </c>
+      <c r="O3" s="2">
+        <v>103</v>
+      </c>
+      <c r="P3" s="2">
+        <v>103</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>103</v>
+      </c>
+      <c r="R3" s="2">
+        <v>103</v>
+      </c>
+      <c r="S3" s="2">
+        <v>103</v>
+      </c>
+      <c r="T3" s="2">
+        <v>103</v>
+      </c>
+      <c r="U3" s="2">
         <v>102</v>
       </c>
-      <c r="D3" s="3">
+      <c r="V3" s="2">
         <v>102</v>
       </c>
-      <c r="E3" s="3">
+      <c r="W3" s="2">
         <v>102</v>
       </c>
-      <c r="F3" s="3">
+      <c r="X3" s="2">
         <v>102</v>
       </c>
-      <c r="G3" s="3">
-        <v>112</v>
-      </c>
-      <c r="H3" s="3">
-        <v>112</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="Y3" s="2">
         <v>102</v>
       </c>
-      <c r="J3" s="3">
-        <v>102</v>
-      </c>
-      <c r="K3" s="3">
-        <v>102</v>
-      </c>
-      <c r="L3" s="3">
-        <v>102</v>
-      </c>
-      <c r="M3" s="3">
-        <v>102</v>
-      </c>
-      <c r="N3" s="3">
-        <v>102</v>
-      </c>
-      <c r="O3" s="3">
-        <v>102</v>
-      </c>
-      <c r="P3" s="3">
-        <v>102</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>102</v>
-      </c>
-      <c r="R3" s="3">
-        <v>102</v>
-      </c>
-      <c r="S3" s="3">
-        <v>102</v>
-      </c>
-      <c r="T3" s="3">
-        <v>102</v>
-      </c>
-      <c r="U3" s="3">
-        <v>102</v>
-      </c>
-      <c r="V3" s="3">
-        <v>102</v>
-      </c>
-      <c r="W3" s="3">
-        <v>102</v>
-      </c>
-      <c r="X3" s="3">
-        <v>102</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>102</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>102</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>102</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>102</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>102</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>102</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>102</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>102</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>103</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>112</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>112</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>112</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>103</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>101</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>101</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>101</v>
-      </c>
-      <c r="AP3" s="3">
-        <v>101</v>
-      </c>
-      <c r="AQ3" s="3">
-        <v>101</v>
-      </c>
-      <c r="AR3" s="3">
-        <v>101</v>
-      </c>
-      <c r="AS3" s="3">
-        <v>101</v>
-      </c>
-      <c r="AT3" s="3">
-        <v>101</v>
-      </c>
-      <c r="AU3" s="3">
-        <v>101</v>
-      </c>
-      <c r="AV3" s="3">
-        <v>101</v>
-      </c>
-      <c r="AW3" s="3">
-        <v>101</v>
-      </c>
-      <c r="AX3" s="3">
-        <v>101</v>
-      </c>
-      <c r="AY3" s="3">
-        <v>101</v>
-      </c>
-      <c r="AZ3" s="11">
-        <v>101</v>
-      </c>
-      <c r="BA3" s="15">
-        <v>101</v>
+      <c r="Z3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>111</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>111</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>111</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>111</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>111</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>111</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>111</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>111</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>111</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>111</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>111</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>111</v>
       </c>
       <c r="BB3" s="2">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="BC3" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BD3" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BE3" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BF3" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BG3" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BH3" s="2">
         <v>101</v>
@@ -4394,185 +4214,185 @@
       </c>
     </row>
     <row r="4" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A4" s="10">
+      <c r="A4" s="2">
+        <v>101</v>
+      </c>
+      <c r="B4" s="2">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2">
+        <v>101</v>
+      </c>
+      <c r="D4" s="2">
+        <v>101</v>
+      </c>
+      <c r="E4" s="2">
+        <v>101</v>
+      </c>
+      <c r="F4" s="2">
+        <v>101</v>
+      </c>
+      <c r="G4" s="2">
+        <v>112</v>
+      </c>
+      <c r="H4" s="2">
+        <v>112</v>
+      </c>
+      <c r="I4" s="2">
         <v>102</v>
       </c>
-      <c r="B4" s="3">
+      <c r="J4" s="2">
+        <v>112</v>
+      </c>
+      <c r="K4" s="2">
+        <v>112</v>
+      </c>
+      <c r="L4" s="2">
         <v>102</v>
       </c>
-      <c r="C4" s="3">
+      <c r="M4" s="2">
         <v>102</v>
       </c>
-      <c r="D4" s="3">
+      <c r="N4" s="2">
         <v>102</v>
       </c>
-      <c r="E4" s="3">
+      <c r="O4" s="2">
+        <v>103</v>
+      </c>
+      <c r="P4" s="2">
+        <v>103</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>103</v>
+      </c>
+      <c r="R4" s="2">
+        <v>103</v>
+      </c>
+      <c r="S4" s="2">
+        <v>103</v>
+      </c>
+      <c r="T4" s="2">
         <v>102</v>
       </c>
-      <c r="F4" s="3">
-        <v>112</v>
-      </c>
-      <c r="G4" s="3">
-        <v>112</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="U4" s="2">
         <v>102</v>
       </c>
-      <c r="I4" s="3">
+      <c r="V4" s="2">
         <v>102</v>
       </c>
-      <c r="J4" s="3">
+      <c r="W4" s="2">
         <v>102</v>
       </c>
-      <c r="K4" s="3">
+      <c r="X4" s="2">
         <v>102</v>
       </c>
-      <c r="L4" s="3">
-        <v>102</v>
-      </c>
-      <c r="M4" s="3">
-        <v>102</v>
-      </c>
-      <c r="N4" s="3">
-        <v>102</v>
-      </c>
-      <c r="O4" s="3">
-        <v>102</v>
-      </c>
-      <c r="P4" s="3">
-        <v>102</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>102</v>
-      </c>
-      <c r="R4" s="3">
-        <v>112</v>
-      </c>
-      <c r="S4" s="3">
-        <v>112</v>
-      </c>
-      <c r="T4" s="3">
-        <v>112</v>
-      </c>
-      <c r="U4" s="3">
-        <v>102</v>
-      </c>
-      <c r="V4" s="3">
-        <v>102</v>
-      </c>
-      <c r="W4" s="3">
-        <v>102</v>
-      </c>
-      <c r="X4" s="3">
-        <v>102</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>102</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>102</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>102</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>102</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>102</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>102</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>102</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>102</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>102</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>103</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>112</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>112</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>112</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>103</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>101</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>101</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>101</v>
-      </c>
-      <c r="AQ4" s="3">
-        <v>101</v>
-      </c>
-      <c r="AR4" s="3">
-        <v>101</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>101</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>101</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>101</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>101</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>101</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>101</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>101</v>
-      </c>
-      <c r="AZ4" s="11">
-        <v>101</v>
-      </c>
-      <c r="BA4" s="15">
-        <v>101</v>
+      <c r="Y4" s="2">
+        <v>101</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>111</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>111</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>111</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>111</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>111</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>111</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>111</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>111</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>111</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>111</v>
       </c>
       <c r="BB4" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BC4" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BD4" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BE4" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BF4" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BG4" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BH4" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BI4" s="2">
         <v>101</v>
@@ -5614,170 +5434,170 @@
       </c>
     </row>
     <row r="5" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A5" s="10">
+      <c r="A5" s="2">
+        <v>101</v>
+      </c>
+      <c r="B5" s="2">
+        <v>101</v>
+      </c>
+      <c r="C5" s="2">
+        <v>101</v>
+      </c>
+      <c r="D5" s="2">
+        <v>101</v>
+      </c>
+      <c r="E5" s="2">
+        <v>101</v>
+      </c>
+      <c r="F5" s="2">
+        <v>101</v>
+      </c>
+      <c r="G5" s="2">
+        <v>112</v>
+      </c>
+      <c r="H5" s="2">
+        <v>112</v>
+      </c>
+      <c r="I5" s="2">
+        <v>112</v>
+      </c>
+      <c r="J5" s="2">
+        <v>112</v>
+      </c>
+      <c r="K5" s="2">
+        <v>112</v>
+      </c>
+      <c r="L5" s="2">
         <v>102</v>
       </c>
-      <c r="B5" s="3">
+      <c r="M5" s="2">
         <v>102</v>
       </c>
-      <c r="C5" s="3">
+      <c r="N5" s="2">
         <v>102</v>
       </c>
-      <c r="D5" s="3">
+      <c r="O5" s="2">
         <v>102</v>
       </c>
-      <c r="E5" s="3">
-        <v>112</v>
-      </c>
-      <c r="F5" s="3">
-        <v>112</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="P5" s="2">
         <v>102</v>
       </c>
-      <c r="H5" s="3">
+      <c r="Q5" s="2">
         <v>102</v>
       </c>
-      <c r="I5" s="3">
+      <c r="R5" s="2">
         <v>102</v>
       </c>
-      <c r="J5" s="3">
+      <c r="S5" s="2">
         <v>102</v>
       </c>
-      <c r="K5" s="3">
+      <c r="T5" s="2">
         <v>102</v>
       </c>
-      <c r="L5" s="3">
+      <c r="U5" s="2">
         <v>102</v>
       </c>
-      <c r="M5" s="3">
+      <c r="V5" s="2">
         <v>102</v>
       </c>
-      <c r="N5" s="3">
+      <c r="W5" s="2">
         <v>102</v>
       </c>
-      <c r="O5" s="3">
-        <v>102</v>
-      </c>
-      <c r="P5" s="3">
-        <v>112</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>112</v>
-      </c>
-      <c r="R5" s="3">
-        <v>112</v>
-      </c>
-      <c r="S5" s="3">
-        <v>112</v>
-      </c>
-      <c r="T5" s="3">
-        <v>112</v>
-      </c>
-      <c r="U5" s="3">
-        <v>112</v>
-      </c>
-      <c r="V5" s="3">
-        <v>112</v>
-      </c>
-      <c r="W5" s="3">
-        <v>102</v>
-      </c>
-      <c r="X5" s="3">
-        <v>102</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>102</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>102</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>102</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>102</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>102</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>102</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>102</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>102</v>
-      </c>
-      <c r="AH5" s="3">
-        <v>102</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>102</v>
-      </c>
-      <c r="AJ5" s="3">
-        <v>103</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>112</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>112</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>112</v>
-      </c>
-      <c r="AN5" s="3">
-        <v>103</v>
-      </c>
-      <c r="AO5" s="3">
-        <v>101</v>
-      </c>
-      <c r="AP5" s="3">
-        <v>101</v>
-      </c>
-      <c r="AQ5" s="3">
-        <v>101</v>
-      </c>
-      <c r="AR5" s="3">
-        <v>101</v>
-      </c>
-      <c r="AS5" s="3">
-        <v>101</v>
-      </c>
-      <c r="AT5" s="3">
-        <v>101</v>
-      </c>
-      <c r="AU5" s="3">
-        <v>101</v>
-      </c>
-      <c r="AV5" s="3">
-        <v>101</v>
-      </c>
-      <c r="AW5" s="3">
-        <v>101</v>
-      </c>
-      <c r="AX5" s="3">
-        <v>101</v>
-      </c>
-      <c r="AY5" s="3">
-        <v>101</v>
-      </c>
-      <c r="AZ5" s="11">
-        <v>101</v>
-      </c>
-      <c r="BA5" s="15">
-        <v>112</v>
+      <c r="X5" s="2">
+        <v>101</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>101</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>101</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>111</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>111</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>111</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>111</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>111</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>111</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>111</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>111</v>
       </c>
       <c r="BB5" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BC5" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BD5" s="2">
         <v>101</v>
@@ -5786,16 +5606,16 @@
         <v>101</v>
       </c>
       <c r="BF5" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BG5" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BH5" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BI5" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BJ5" s="2">
         <v>101</v>
@@ -6834,167 +6654,167 @@
       </c>
     </row>
     <row r="6" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A6" s="10">
+      <c r="A6" s="2">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2">
+        <v>101</v>
+      </c>
+      <c r="D6" s="2">
+        <v>101</v>
+      </c>
+      <c r="E6" s="2">
+        <v>101</v>
+      </c>
+      <c r="F6" s="2">
+        <v>101</v>
+      </c>
+      <c r="G6" s="2">
+        <v>101</v>
+      </c>
+      <c r="H6" s="2">
         <v>112</v>
       </c>
-      <c r="B6" s="3">
+      <c r="I6" s="2">
         <v>112</v>
       </c>
-      <c r="C6" s="3">
+      <c r="J6" s="2">
         <v>112</v>
       </c>
-      <c r="D6" s="3">
-        <v>112</v>
-      </c>
-      <c r="E6" s="3">
-        <v>112</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="K6" s="2">
         <v>102</v>
       </c>
-      <c r="G6" s="3">
+      <c r="L6" s="2">
         <v>102</v>
       </c>
-      <c r="H6" s="3">
+      <c r="M6" s="2">
         <v>102</v>
       </c>
-      <c r="I6" s="3">
+      <c r="N6" s="2">
         <v>102</v>
       </c>
-      <c r="J6" s="3">
+      <c r="O6" s="2">
         <v>102</v>
       </c>
-      <c r="K6" s="3">
+      <c r="P6" s="2">
         <v>102</v>
       </c>
-      <c r="L6" s="3">
+      <c r="Q6" s="2">
         <v>102</v>
       </c>
-      <c r="M6" s="3">
+      <c r="R6" s="2">
         <v>102</v>
       </c>
-      <c r="N6" s="3">
+      <c r="S6" s="2">
         <v>102</v>
       </c>
-      <c r="O6" s="3">
-        <v>112</v>
-      </c>
-      <c r="P6" s="3">
-        <v>112</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>112</v>
-      </c>
-      <c r="R6" s="3">
-        <v>112</v>
-      </c>
-      <c r="S6" s="3">
-        <v>112</v>
-      </c>
-      <c r="T6" s="3">
-        <v>112</v>
-      </c>
-      <c r="U6" s="3">
-        <v>112</v>
-      </c>
-      <c r="V6" s="3">
-        <v>112</v>
-      </c>
-      <c r="W6" s="3">
-        <v>112</v>
-      </c>
-      <c r="X6" s="3">
+      <c r="T6" s="2">
         <v>102</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="U6" s="2">
         <v>102</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="V6" s="2">
         <v>102</v>
       </c>
-      <c r="AA6" s="3">
-        <v>102</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>102</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>102</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>102</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>102</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>102</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>102</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>102</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>102</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>103</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>112</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>112</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>112</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>103</v>
-      </c>
-      <c r="AP6" s="3">
-        <v>101</v>
-      </c>
-      <c r="AQ6" s="3">
-        <v>101</v>
-      </c>
-      <c r="AR6" s="3">
-        <v>101</v>
-      </c>
-      <c r="AS6" s="3">
-        <v>101</v>
-      </c>
-      <c r="AT6" s="3">
-        <v>101</v>
-      </c>
-      <c r="AU6" s="3">
-        <v>101</v>
-      </c>
-      <c r="AV6" s="3">
-        <v>101</v>
-      </c>
-      <c r="AW6" s="3">
-        <v>101</v>
-      </c>
-      <c r="AX6" s="3">
-        <v>101</v>
-      </c>
-      <c r="AY6" s="3">
-        <v>101</v>
-      </c>
-      <c r="AZ6" s="11">
-        <v>112</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>112</v>
+      <c r="W6" s="2">
+        <v>101</v>
+      </c>
+      <c r="X6" s="2">
+        <v>101</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>101</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>111</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>111</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>111</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>111</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>111</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>101</v>
       </c>
       <c r="BB6" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BC6" s="2">
         <v>101</v>
@@ -7009,16 +6829,16 @@
         <v>101</v>
       </c>
       <c r="BG6" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BH6" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BI6" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BJ6" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BK6" s="2">
         <v>101</v>
@@ -8054,164 +7874,164 @@
       </c>
     </row>
     <row r="7" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A7" s="10">
+      <c r="A7" s="2">
+        <v>101</v>
+      </c>
+      <c r="B7" s="2">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2">
+        <v>101</v>
+      </c>
+      <c r="D7" s="2">
+        <v>101</v>
+      </c>
+      <c r="E7" s="2">
+        <v>101</v>
+      </c>
+      <c r="F7" s="2">
+        <v>101</v>
+      </c>
+      <c r="G7" s="2">
+        <v>101</v>
+      </c>
+      <c r="H7" s="2">
+        <v>101</v>
+      </c>
+      <c r="I7" s="2">
         <v>102</v>
       </c>
-      <c r="B7" s="3">
+      <c r="J7" s="2">
         <v>102</v>
       </c>
-      <c r="C7" s="3">
+      <c r="K7" s="2">
         <v>102</v>
       </c>
-      <c r="D7" s="3">
+      <c r="L7" s="2">
         <v>102</v>
       </c>
-      <c r="E7" s="3">
+      <c r="M7" s="2">
         <v>102</v>
       </c>
-      <c r="F7" s="3">
+      <c r="N7" s="2">
         <v>102</v>
       </c>
-      <c r="G7" s="3">
+      <c r="O7" s="2">
         <v>102</v>
       </c>
-      <c r="H7" s="3">
+      <c r="P7" s="2">
         <v>102</v>
       </c>
-      <c r="I7" s="3">
+      <c r="Q7" s="2">
         <v>102</v>
       </c>
-      <c r="J7" s="3">
+      <c r="R7" s="2">
         <v>102</v>
       </c>
-      <c r="K7" s="3">
+      <c r="S7" s="2">
         <v>102</v>
       </c>
-      <c r="L7" s="3">
+      <c r="T7" s="2">
         <v>102</v>
       </c>
-      <c r="M7" s="3">
+      <c r="U7" s="2">
         <v>102</v>
       </c>
-      <c r="N7" s="3">
+      <c r="V7" s="2">
         <v>102</v>
       </c>
-      <c r="O7" s="3">
-        <v>112</v>
-      </c>
-      <c r="P7" s="3">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>112</v>
-      </c>
-      <c r="R7" s="3">
-        <v>112</v>
-      </c>
-      <c r="S7" s="3">
-        <v>112</v>
-      </c>
-      <c r="T7" s="3">
-        <v>112</v>
-      </c>
-      <c r="U7" s="3">
-        <v>112</v>
-      </c>
-      <c r="V7" s="3">
-        <v>112</v>
-      </c>
-      <c r="W7" s="3">
-        <v>112</v>
-      </c>
-      <c r="X7" s="3">
-        <v>102</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>102</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>102</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>102</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>102</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>102</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>102</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>102</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>102</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>102</v>
-      </c>
-      <c r="AI7" s="3">
-        <v>102</v>
-      </c>
-      <c r="AJ7" s="3">
-        <v>102</v>
-      </c>
-      <c r="AK7" s="3">
-        <v>102</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>103</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>112</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>112</v>
-      </c>
-      <c r="AO7" s="3">
-        <v>112</v>
-      </c>
-      <c r="AP7" s="3">
-        <v>103</v>
-      </c>
-      <c r="AQ7" s="3">
-        <v>101</v>
-      </c>
-      <c r="AR7" s="3">
-        <v>101</v>
-      </c>
-      <c r="AS7" s="3">
-        <v>101</v>
-      </c>
-      <c r="AT7" s="3">
-        <v>101</v>
-      </c>
-      <c r="AU7" s="3">
-        <v>101</v>
-      </c>
-      <c r="AV7" s="3">
-        <v>101</v>
-      </c>
-      <c r="AW7" s="3">
-        <v>101</v>
-      </c>
-      <c r="AX7" s="3">
-        <v>101</v>
-      </c>
-      <c r="AY7" s="3">
-        <v>112</v>
-      </c>
-      <c r="AZ7" s="11">
-        <v>112</v>
-      </c>
-      <c r="BA7" s="15">
-        <v>112</v>
+      <c r="W7" s="2">
+        <v>101</v>
+      </c>
+      <c r="X7" s="2">
+        <v>101</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>101</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>101</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>111</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>111</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>101</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>101</v>
       </c>
       <c r="BB7" s="2">
         <v>101</v>
@@ -8232,16 +8052,16 @@
         <v>101</v>
       </c>
       <c r="BH7" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BI7" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BJ7" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BK7" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BL7" s="2">
         <v>101</v>
@@ -9274,163 +9094,163 @@
       </c>
     </row>
     <row r="8" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A8" s="10">
+      <c r="A8" s="2">
+        <v>101</v>
+      </c>
+      <c r="B8" s="2">
+        <v>101</v>
+      </c>
+      <c r="C8" s="2">
+        <v>101</v>
+      </c>
+      <c r="D8" s="2">
+        <v>101</v>
+      </c>
+      <c r="E8" s="2">
+        <v>101</v>
+      </c>
+      <c r="F8" s="2">
+        <v>101</v>
+      </c>
+      <c r="G8" s="2">
+        <v>101</v>
+      </c>
+      <c r="H8" s="2">
+        <v>101</v>
+      </c>
+      <c r="I8" s="2">
+        <v>101</v>
+      </c>
+      <c r="J8" s="2">
         <v>102</v>
       </c>
-      <c r="B8" s="3">
+      <c r="K8" s="2">
         <v>102</v>
       </c>
-      <c r="C8" s="3">
+      <c r="L8" s="2">
         <v>102</v>
       </c>
-      <c r="D8" s="3">
+      <c r="M8" s="2">
         <v>102</v>
       </c>
-      <c r="E8" s="3">
+      <c r="N8" s="2">
         <v>102</v>
       </c>
-      <c r="F8" s="3">
+      <c r="O8" s="2">
         <v>102</v>
       </c>
-      <c r="G8" s="3">
+      <c r="P8" s="2">
         <v>102</v>
       </c>
-      <c r="H8" s="3">
+      <c r="Q8" s="2">
         <v>102</v>
       </c>
-      <c r="I8" s="3">
+      <c r="R8" s="2">
         <v>102</v>
       </c>
-      <c r="J8" s="3">
+      <c r="S8" s="2">
         <v>102</v>
       </c>
-      <c r="K8" s="3">
+      <c r="T8" s="2">
         <v>102</v>
       </c>
-      <c r="L8" s="3">
-        <v>102</v>
-      </c>
-      <c r="M8" s="3">
-        <v>102</v>
-      </c>
-      <c r="N8" s="3">
-        <v>112</v>
-      </c>
-      <c r="O8" s="3">
-        <v>112</v>
-      </c>
-      <c r="P8" s="3">
-        <v>112</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>112</v>
-      </c>
-      <c r="R8" s="3">
-        <v>112</v>
-      </c>
-      <c r="S8" s="3">
-        <v>112</v>
-      </c>
-      <c r="T8" s="3">
-        <v>112</v>
-      </c>
-      <c r="U8" s="3">
-        <v>112</v>
-      </c>
-      <c r="V8" s="3">
-        <v>112</v>
-      </c>
-      <c r="W8" s="3">
-        <v>112</v>
-      </c>
-      <c r="X8" s="3">
-        <v>112</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>102</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>102</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>102</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>102</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>102</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>102</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>102</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>102</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>102</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>102</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>102</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>102</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>102</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>103</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>112</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>112</v>
-      </c>
-      <c r="AP8" s="3">
-        <v>103</v>
-      </c>
-      <c r="AQ8" s="3">
-        <v>101</v>
-      </c>
-      <c r="AR8" s="3">
-        <v>101</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>101</v>
-      </c>
-      <c r="AT8" s="3">
-        <v>101</v>
-      </c>
-      <c r="AU8" s="3">
-        <v>101</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>101</v>
-      </c>
-      <c r="AW8" s="3">
-        <v>101</v>
-      </c>
-      <c r="AX8" s="3">
-        <v>112</v>
-      </c>
-      <c r="AY8" s="3">
-        <v>112</v>
-      </c>
-      <c r="AZ8" s="11">
-        <v>112</v>
-      </c>
-      <c r="BA8" s="15">
+      <c r="U8" s="2">
+        <v>101</v>
+      </c>
+      <c r="V8" s="2">
+        <v>101</v>
+      </c>
+      <c r="W8" s="2">
+        <v>101</v>
+      </c>
+      <c r="X8" s="2">
+        <v>101</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>101</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>101</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>101</v>
+      </c>
+      <c r="BA8" s="2">
         <v>101</v>
       </c>
       <c r="BB8" s="2">
@@ -9455,16 +9275,16 @@
         <v>101</v>
       </c>
       <c r="BI8" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BJ8" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BK8" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BL8" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BM8" s="2">
         <v>101</v>
@@ -10494,163 +10314,163 @@
       </c>
     </row>
     <row r="9" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A9" s="10">
+      <c r="A9" s="2">
+        <v>101</v>
+      </c>
+      <c r="B9" s="2">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2">
+        <v>101</v>
+      </c>
+      <c r="D9" s="2">
+        <v>101</v>
+      </c>
+      <c r="E9" s="2">
+        <v>101</v>
+      </c>
+      <c r="F9" s="2">
+        <v>101</v>
+      </c>
+      <c r="G9" s="2">
+        <v>101</v>
+      </c>
+      <c r="H9" s="2">
+        <v>101</v>
+      </c>
+      <c r="I9" s="2">
+        <v>101</v>
+      </c>
+      <c r="J9" s="2">
         <v>102</v>
       </c>
-      <c r="B9" s="3">
+      <c r="K9" s="2">
         <v>102</v>
       </c>
-      <c r="C9" s="3">
+      <c r="L9" s="2">
         <v>102</v>
       </c>
-      <c r="D9" s="3">
+      <c r="M9" s="2">
         <v>102</v>
       </c>
-      <c r="E9" s="3">
+      <c r="N9" s="2">
         <v>102</v>
       </c>
-      <c r="F9" s="3">
+      <c r="O9" s="2">
         <v>102</v>
       </c>
-      <c r="G9" s="3">
+      <c r="P9" s="2">
         <v>102</v>
       </c>
-      <c r="H9" s="3">
+      <c r="Q9" s="2">
         <v>102</v>
       </c>
-      <c r="I9" s="3">
+      <c r="R9" s="2">
         <v>102</v>
       </c>
-      <c r="J9" s="3">
+      <c r="S9" s="2">
         <v>102</v>
       </c>
-      <c r="K9" s="3">
-        <v>102</v>
-      </c>
-      <c r="L9" s="3">
-        <v>102</v>
-      </c>
-      <c r="M9" s="3">
-        <v>102</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="T9" s="2">
+        <v>101</v>
+      </c>
+      <c r="U9" s="2">
+        <v>101</v>
+      </c>
+      <c r="V9" s="2">
+        <v>101</v>
+      </c>
+      <c r="W9" s="2">
         <v>112</v>
       </c>
-      <c r="O9" s="3">
+      <c r="X9" s="2">
         <v>112</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Y9" s="2">
         <v>112</v>
       </c>
-      <c r="Q9" s="3">
-        <v>112</v>
-      </c>
-      <c r="R9" s="3">
-        <v>112</v>
-      </c>
-      <c r="S9" s="3">
-        <v>102</v>
-      </c>
-      <c r="T9" s="3">
-        <v>112</v>
-      </c>
-      <c r="U9" s="3">
-        <v>112</v>
-      </c>
-      <c r="V9" s="3">
-        <v>112</v>
-      </c>
-      <c r="W9" s="3">
-        <v>112</v>
-      </c>
-      <c r="X9" s="3">
-        <v>112</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>102</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>102</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>102</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>102</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>102</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>102</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>102</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>102</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>102</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>102</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>102</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>102</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>102</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>102</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>103</v>
-      </c>
-      <c r="AO9" s="3">
-        <v>103</v>
-      </c>
-      <c r="AP9" s="3">
-        <v>101</v>
-      </c>
-      <c r="AQ9" s="3">
-        <v>101</v>
-      </c>
-      <c r="AR9" s="3">
-        <v>101</v>
-      </c>
-      <c r="AS9" s="3">
-        <v>101</v>
-      </c>
-      <c r="AT9" s="3">
-        <v>101</v>
-      </c>
-      <c r="AU9" s="3">
-        <v>101</v>
-      </c>
-      <c r="AV9" s="3">
-        <v>101</v>
-      </c>
-      <c r="AW9" s="3">
-        <v>112</v>
-      </c>
-      <c r="AX9" s="3">
-        <v>112</v>
-      </c>
-      <c r="AY9" s="3">
-        <v>112</v>
-      </c>
-      <c r="AZ9" s="11">
-        <v>101</v>
-      </c>
-      <c r="BA9" s="15">
+      <c r="Z9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>101</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>101</v>
+      </c>
+      <c r="BA9" s="2">
         <v>101</v>
       </c>
       <c r="BB9" s="2">
@@ -10678,16 +10498,16 @@
         <v>101</v>
       </c>
       <c r="BJ9" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BK9" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BL9" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BM9" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BN9" s="2">
         <v>101</v>
@@ -11714,163 +11534,163 @@
       </c>
     </row>
     <row r="10" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A10" s="10">
+      <c r="A10" s="2">
+        <v>101</v>
+      </c>
+      <c r="B10" s="2">
+        <v>101</v>
+      </c>
+      <c r="C10" s="2">
+        <v>101</v>
+      </c>
+      <c r="D10" s="2">
+        <v>101</v>
+      </c>
+      <c r="E10" s="2">
+        <v>101</v>
+      </c>
+      <c r="F10" s="2">
+        <v>101</v>
+      </c>
+      <c r="G10" s="2">
+        <v>101</v>
+      </c>
+      <c r="H10" s="2">
+        <v>101</v>
+      </c>
+      <c r="I10" s="2">
+        <v>101</v>
+      </c>
+      <c r="J10" s="2">
+        <v>101</v>
+      </c>
+      <c r="K10" s="2">
         <v>102</v>
       </c>
-      <c r="B10" s="3">
+      <c r="L10" s="2">
         <v>102</v>
       </c>
-      <c r="C10" s="3">
+      <c r="M10" s="2">
         <v>102</v>
       </c>
-      <c r="D10" s="3">
+      <c r="N10" s="2">
         <v>102</v>
       </c>
-      <c r="E10" s="3">
+      <c r="O10" s="2">
         <v>102</v>
       </c>
-      <c r="F10" s="3">
+      <c r="P10" s="2">
         <v>102</v>
       </c>
-      <c r="G10" s="3">
+      <c r="Q10" s="2">
         <v>102</v>
       </c>
-      <c r="H10" s="3">
+      <c r="R10" s="2">
         <v>102</v>
       </c>
-      <c r="I10" s="3">
-        <v>102</v>
-      </c>
-      <c r="J10" s="3">
-        <v>102</v>
-      </c>
-      <c r="K10" s="3">
-        <v>102</v>
-      </c>
-      <c r="L10" s="3">
-        <v>102</v>
-      </c>
-      <c r="M10" s="3">
-        <v>102</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="S10" s="2">
+        <v>101</v>
+      </c>
+      <c r="T10" s="2">
+        <v>101</v>
+      </c>
+      <c r="U10" s="2">
         <v>112</v>
       </c>
-      <c r="O10" s="3">
+      <c r="V10" s="2">
         <v>112</v>
       </c>
-      <c r="P10" s="3">
+      <c r="W10" s="2">
         <v>112</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="X10" s="2">
         <v>112</v>
       </c>
-      <c r="R10" s="3">
+      <c r="Y10" s="2">
         <v>112</v>
       </c>
-      <c r="S10" s="3">
+      <c r="Z10" s="2">
         <v>112</v>
       </c>
-      <c r="T10" s="3">
-        <v>112</v>
-      </c>
-      <c r="U10" s="3">
-        <v>112</v>
-      </c>
-      <c r="V10" s="3">
-        <v>112</v>
-      </c>
-      <c r="W10" s="3">
-        <v>112</v>
-      </c>
-      <c r="X10" s="3">
-        <v>112</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>102</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>102</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>102</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>102</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>102</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>102</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>102</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>102</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>102</v>
-      </c>
-      <c r="AI10" s="3">
-        <v>102</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>102</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>102</v>
-      </c>
-      <c r="AL10" s="3">
-        <v>102</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>101</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>101</v>
-      </c>
-      <c r="AO10" s="3">
-        <v>101</v>
-      </c>
-      <c r="AP10" s="3">
-        <v>101</v>
-      </c>
-      <c r="AQ10" s="3">
-        <v>101</v>
-      </c>
-      <c r="AR10" s="3">
-        <v>101</v>
-      </c>
-      <c r="AS10" s="3">
-        <v>101</v>
-      </c>
-      <c r="AT10" s="3">
-        <v>101</v>
-      </c>
-      <c r="AU10" s="3">
-        <v>101</v>
-      </c>
-      <c r="AV10" s="3">
-        <v>112</v>
-      </c>
-      <c r="AW10" s="3">
-        <v>112</v>
-      </c>
-      <c r="AX10" s="3">
-        <v>112</v>
-      </c>
-      <c r="AY10" s="3">
-        <v>101</v>
-      </c>
-      <c r="AZ10" s="11">
-        <v>101</v>
-      </c>
-      <c r="BA10" s="15">
+      <c r="AA10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AW10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>101</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>101</v>
+      </c>
+      <c r="BA10" s="2">
         <v>101</v>
       </c>
       <c r="BB10" s="2">
@@ -11901,40 +11721,40 @@
         <v>101</v>
       </c>
       <c r="BK10" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BL10" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BM10" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BN10" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BO10" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BP10" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BQ10" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BR10" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BS10" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BT10" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU10" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BV10" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BW10" s="2">
         <v>101</v>
@@ -12934,163 +12754,163 @@
       </c>
     </row>
     <row r="11" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A11" s="10">
+      <c r="A11" s="2">
+        <v>101</v>
+      </c>
+      <c r="B11" s="2">
+        <v>101</v>
+      </c>
+      <c r="C11" s="2">
+        <v>101</v>
+      </c>
+      <c r="D11" s="2">
+        <v>101</v>
+      </c>
+      <c r="E11" s="2">
+        <v>101</v>
+      </c>
+      <c r="F11" s="2">
+        <v>101</v>
+      </c>
+      <c r="G11" s="2">
+        <v>101</v>
+      </c>
+      <c r="H11" s="2">
+        <v>101</v>
+      </c>
+      <c r="I11" s="2">
+        <v>101</v>
+      </c>
+      <c r="J11" s="2">
+        <v>101</v>
+      </c>
+      <c r="K11" s="2">
+        <v>101</v>
+      </c>
+      <c r="L11" s="2">
         <v>102</v>
       </c>
-      <c r="B11" s="3">
+      <c r="M11" s="2">
         <v>102</v>
       </c>
-      <c r="C11" s="3">
+      <c r="N11" s="2">
         <v>102</v>
       </c>
-      <c r="D11" s="3">
+      <c r="O11" s="2">
         <v>102</v>
       </c>
-      <c r="E11" s="3">
+      <c r="P11" s="2">
         <v>102</v>
       </c>
-      <c r="F11" s="3">
+      <c r="Q11" s="2">
         <v>102</v>
       </c>
-      <c r="G11" s="3">
+      <c r="R11" s="2">
         <v>102</v>
       </c>
-      <c r="H11" s="3">
-        <v>102</v>
-      </c>
-      <c r="I11" s="3">
-        <v>102</v>
-      </c>
-      <c r="J11" s="3">
-        <v>102</v>
-      </c>
-      <c r="K11" s="3">
-        <v>102</v>
-      </c>
-      <c r="L11" s="3">
-        <v>102</v>
-      </c>
-      <c r="M11" s="3">
-        <v>102</v>
-      </c>
-      <c r="N11" s="3">
-        <v>102</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="S11" s="2">
+        <v>101</v>
+      </c>
+      <c r="T11" s="2">
         <v>112</v>
       </c>
-      <c r="P11" s="3">
+      <c r="U11" s="2">
         <v>112</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="V11" s="2">
         <v>112</v>
       </c>
-      <c r="R11" s="3">
+      <c r="W11" s="2">
         <v>112</v>
       </c>
-      <c r="S11" s="3">
+      <c r="X11" s="2">
         <v>112</v>
       </c>
-      <c r="T11" s="3">
+      <c r="Y11" s="2">
         <v>112</v>
       </c>
-      <c r="U11" s="3">
+      <c r="Z11" s="2">
         <v>112</v>
       </c>
-      <c r="V11" s="3">
-        <v>112</v>
-      </c>
-      <c r="W11" s="3">
-        <v>112</v>
-      </c>
-      <c r="X11" s="3">
-        <v>102</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>102</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>102</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>102</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>102</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>102</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>102</v>
-      </c>
-      <c r="AF11" s="3">
-        <v>102</v>
-      </c>
-      <c r="AG11" s="3">
-        <v>102</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>102</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>102</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>102</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>101</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>101</v>
-      </c>
-      <c r="AM11" s="3">
-        <v>101</v>
-      </c>
-      <c r="AN11" s="3">
-        <v>101</v>
-      </c>
-      <c r="AO11" s="3">
-        <v>101</v>
-      </c>
-      <c r="AP11" s="3">
-        <v>101</v>
-      </c>
-      <c r="AQ11" s="3">
-        <v>101</v>
-      </c>
-      <c r="AR11" s="3">
-        <v>101</v>
-      </c>
-      <c r="AS11" s="3">
-        <v>101</v>
-      </c>
-      <c r="AT11" s="3">
-        <v>101</v>
-      </c>
-      <c r="AU11" s="3">
-        <v>112</v>
-      </c>
-      <c r="AV11" s="3">
-        <v>112</v>
-      </c>
-      <c r="AW11" s="3">
-        <v>112</v>
-      </c>
-      <c r="AX11" s="3">
-        <v>101</v>
-      </c>
-      <c r="AY11" s="3">
-        <v>101</v>
-      </c>
-      <c r="AZ11" s="11">
-        <v>101</v>
-      </c>
-      <c r="BA11" s="15">
+      <c r="AA11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>101</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>101</v>
+      </c>
+      <c r="BA11" s="2">
         <v>101</v>
       </c>
       <c r="BB11" s="2">
@@ -13124,37 +12944,37 @@
         <v>101</v>
       </c>
       <c r="BL11" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BM11" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BN11" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BO11" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BP11" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BQ11" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BR11" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BS11" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BT11" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU11" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BV11" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BW11" s="2">
         <v>101</v>
@@ -14154,163 +13974,163 @@
       </c>
     </row>
     <row r="12" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A12" s="10">
+      <c r="A12" s="2">
+        <v>101</v>
+      </c>
+      <c r="B12" s="2">
+        <v>101</v>
+      </c>
+      <c r="C12" s="2">
+        <v>101</v>
+      </c>
+      <c r="D12" s="2">
+        <v>101</v>
+      </c>
+      <c r="E12" s="2">
+        <v>101</v>
+      </c>
+      <c r="F12" s="2">
+        <v>101</v>
+      </c>
+      <c r="G12" s="2">
+        <v>101</v>
+      </c>
+      <c r="H12" s="2">
+        <v>101</v>
+      </c>
+      <c r="I12" s="2">
+        <v>101</v>
+      </c>
+      <c r="J12" s="2">
+        <v>101</v>
+      </c>
+      <c r="K12" s="2">
+        <v>101</v>
+      </c>
+      <c r="L12" s="2">
+        <v>101</v>
+      </c>
+      <c r="M12" s="2">
         <v>102</v>
       </c>
-      <c r="B12" s="3">
+      <c r="N12" s="2">
         <v>102</v>
       </c>
-      <c r="C12" s="3">
+      <c r="O12" s="2">
         <v>102</v>
       </c>
-      <c r="D12" s="3">
+      <c r="P12" s="2">
         <v>102</v>
       </c>
-      <c r="E12" s="3">
-        <v>102</v>
-      </c>
-      <c r="F12" s="3">
-        <v>102</v>
-      </c>
-      <c r="G12" s="3">
-        <v>102</v>
-      </c>
-      <c r="H12" s="3">
-        <v>102</v>
-      </c>
-      <c r="I12" s="3">
-        <v>102</v>
-      </c>
-      <c r="J12" s="3">
-        <v>102</v>
-      </c>
-      <c r="K12" s="3">
-        <v>102</v>
-      </c>
-      <c r="L12" s="3">
-        <v>102</v>
-      </c>
-      <c r="M12" s="3">
-        <v>102</v>
-      </c>
-      <c r="N12" s="3">
-        <v>102</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="2">
+        <v>101</v>
+      </c>
+      <c r="R12" s="2">
+        <v>101</v>
+      </c>
+      <c r="S12" s="2">
         <v>112</v>
       </c>
-      <c r="P12" s="3">
+      <c r="T12" s="2">
         <v>112</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="U12" s="2">
         <v>112</v>
       </c>
-      <c r="R12" s="3">
+      <c r="V12" s="2">
         <v>112</v>
       </c>
-      <c r="S12" s="3">
+      <c r="W12" s="2">
         <v>112</v>
       </c>
-      <c r="T12" s="3">
+      <c r="X12" s="2">
         <v>112</v>
       </c>
-      <c r="U12" s="3">
+      <c r="Y12" s="2">
         <v>112</v>
       </c>
-      <c r="V12" s="3">
+      <c r="Z12" s="2">
         <v>112</v>
       </c>
-      <c r="W12" s="3">
+      <c r="AA12" s="2">
         <v>112</v>
       </c>
-      <c r="X12" s="3">
-        <v>102</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>102</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>102</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>102</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>102</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>102</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>102</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>102</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>102</v>
-      </c>
-      <c r="AH12" s="3">
+      <c r="AB12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AI12" s="2">
         <v>103</v>
       </c>
-      <c r="AI12" s="3">
-        <v>112</v>
-      </c>
-      <c r="AJ12" s="3">
-        <v>112</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>112</v>
-      </c>
-      <c r="AL12" s="3">
+      <c r="AJ12" s="2">
         <v>103</v>
       </c>
-      <c r="AM12" s="3">
-        <v>101</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>101</v>
-      </c>
-      <c r="AO12" s="3">
-        <v>101</v>
-      </c>
-      <c r="AP12" s="3">
-        <v>101</v>
-      </c>
-      <c r="AQ12" s="3">
-        <v>101</v>
-      </c>
-      <c r="AR12" s="3">
-        <v>101</v>
-      </c>
-      <c r="AS12" s="3">
-        <v>101</v>
-      </c>
-      <c r="AT12" s="3">
-        <v>112</v>
-      </c>
-      <c r="AU12" s="3">
-        <v>112</v>
-      </c>
-      <c r="AV12" s="3">
-        <v>112</v>
-      </c>
-      <c r="AW12" s="3">
-        <v>101</v>
-      </c>
-      <c r="AX12" s="3">
-        <v>101</v>
-      </c>
-      <c r="AY12" s="3">
-        <v>101</v>
-      </c>
-      <c r="AZ12" s="11">
-        <v>101</v>
-      </c>
-      <c r="BA12" s="15">
+      <c r="AK12" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>103</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>101</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>101</v>
+      </c>
+      <c r="BA12" s="2">
         <v>101</v>
       </c>
       <c r="BB12" s="2">
@@ -14347,34 +14167,34 @@
         <v>101</v>
       </c>
       <c r="BM12" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BN12" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BO12" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BP12" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BQ12" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BR12" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BS12" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BT12" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BU12" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BV12" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="BW12" s="2">
         <v>101</v>
@@ -15374,167 +15194,167 @@
       </c>
     </row>
     <row r="13" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A13" s="10">
+      <c r="A13" s="2">
+        <v>101</v>
+      </c>
+      <c r="B13" s="2">
+        <v>101</v>
+      </c>
+      <c r="C13" s="2">
+        <v>101</v>
+      </c>
+      <c r="D13" s="2">
+        <v>101</v>
+      </c>
+      <c r="E13" s="2">
+        <v>101</v>
+      </c>
+      <c r="F13" s="2">
+        <v>101</v>
+      </c>
+      <c r="G13" s="2">
+        <v>101</v>
+      </c>
+      <c r="H13" s="2">
+        <v>101</v>
+      </c>
+      <c r="I13" s="2">
+        <v>101</v>
+      </c>
+      <c r="J13" s="2">
+        <v>101</v>
+      </c>
+      <c r="K13" s="2">
+        <v>101</v>
+      </c>
+      <c r="L13" s="2">
+        <v>101</v>
+      </c>
+      <c r="M13" s="2">
+        <v>101</v>
+      </c>
+      <c r="N13" s="2">
         <v>102</v>
       </c>
-      <c r="B13" s="3">
+      <c r="O13" s="2">
         <v>102</v>
       </c>
-      <c r="C13" s="3">
-        <v>102</v>
-      </c>
-      <c r="D13" s="3">
-        <v>102</v>
-      </c>
-      <c r="E13" s="3">
-        <v>102</v>
-      </c>
-      <c r="F13" s="3">
-        <v>102</v>
-      </c>
-      <c r="G13" s="3">
-        <v>102</v>
-      </c>
-      <c r="H13" s="3">
-        <v>102</v>
-      </c>
-      <c r="I13" s="3">
-        <v>102</v>
-      </c>
-      <c r="J13" s="3">
-        <v>102</v>
-      </c>
-      <c r="K13" s="3">
-        <v>102</v>
-      </c>
-      <c r="L13" s="3">
-        <v>102</v>
-      </c>
-      <c r="M13" s="3">
-        <v>102</v>
-      </c>
-      <c r="N13" s="3">
-        <v>102</v>
-      </c>
-      <c r="O13" s="3">
-        <v>102</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="P13" s="2">
+        <v>101</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>101</v>
+      </c>
+      <c r="R13" s="2">
+        <v>101</v>
+      </c>
+      <c r="S13" s="2">
         <v>112</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="T13" s="2">
         <v>112</v>
       </c>
-      <c r="R13" s="3">
+      <c r="U13" s="2">
         <v>112</v>
       </c>
-      <c r="S13" s="3">
+      <c r="V13" s="2">
         <v>112</v>
       </c>
-      <c r="T13" s="3">
+      <c r="W13" s="2">
         <v>112</v>
       </c>
-      <c r="U13" s="3">
+      <c r="X13" s="2">
         <v>112</v>
       </c>
-      <c r="V13" s="3">
+      <c r="Y13" s="2">
         <v>112</v>
       </c>
-      <c r="W13" s="3">
-        <v>102</v>
-      </c>
-      <c r="X13" s="3">
-        <v>102</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>102</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>102</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>102</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>102</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>102</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>102</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>102</v>
-      </c>
-      <c r="AG13" s="3">
+      <c r="Z13" s="2">
+        <v>112</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AH13" s="2">
         <v>103</v>
       </c>
-      <c r="AH13" s="3">
-        <v>112</v>
-      </c>
-      <c r="AI13" s="3">
-        <v>112</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>112</v>
-      </c>
-      <c r="AK13" s="3">
+      <c r="AI13" s="2">
         <v>103</v>
       </c>
-      <c r="AL13" s="3">
-        <v>101</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>101</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>101</v>
-      </c>
-      <c r="AO13" s="3">
-        <v>101</v>
-      </c>
-      <c r="AP13" s="3">
-        <v>101</v>
-      </c>
-      <c r="AQ13" s="3">
-        <v>101</v>
-      </c>
-      <c r="AR13" s="3">
-        <v>101</v>
-      </c>
-      <c r="AS13" s="3">
-        <v>112</v>
-      </c>
-      <c r="AT13" s="3">
-        <v>112</v>
-      </c>
-      <c r="AU13" s="3">
-        <v>112</v>
-      </c>
-      <c r="AV13" s="3">
-        <v>101</v>
-      </c>
-      <c r="AW13" s="3">
-        <v>101</v>
-      </c>
-      <c r="AX13" s="3">
-        <v>101</v>
-      </c>
-      <c r="AY13" s="3">
-        <v>111</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>111</v>
-      </c>
-      <c r="BA13" s="15">
-        <v>111</v>
+      <c r="AJ13" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>103</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>103</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>101</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>101</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>101</v>
       </c>
       <c r="BB13" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BC13" s="2">
         <v>101</v>
@@ -16594,170 +16414,170 @@
       </c>
     </row>
     <row r="14" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A14" s="10">
+      <c r="A14" s="2">
+        <v>101</v>
+      </c>
+      <c r="B14" s="2">
+        <v>101</v>
+      </c>
+      <c r="C14" s="2">
+        <v>101</v>
+      </c>
+      <c r="D14" s="2">
+        <v>101</v>
+      </c>
+      <c r="E14" s="2">
+        <v>101</v>
+      </c>
+      <c r="F14" s="2">
         <v>112</v>
       </c>
-      <c r="B14" s="3">
+      <c r="G14" s="2">
         <v>112</v>
       </c>
-      <c r="C14" s="3">
+      <c r="H14" s="2">
         <v>112</v>
       </c>
-      <c r="D14" s="3">
-        <v>102</v>
-      </c>
-      <c r="E14" s="3">
-        <v>102</v>
-      </c>
-      <c r="F14" s="3">
-        <v>102</v>
-      </c>
-      <c r="G14" s="3">
-        <v>102</v>
-      </c>
-      <c r="H14" s="3">
-        <v>102</v>
-      </c>
-      <c r="I14" s="3">
-        <v>102</v>
-      </c>
-      <c r="J14" s="3">
-        <v>102</v>
-      </c>
-      <c r="K14" s="3">
-        <v>102</v>
-      </c>
-      <c r="L14" s="3">
-        <v>102</v>
-      </c>
-      <c r="M14" s="3">
-        <v>102</v>
-      </c>
-      <c r="N14" s="3">
-        <v>102</v>
-      </c>
-      <c r="O14" s="3">
-        <v>102</v>
-      </c>
-      <c r="P14" s="3">
-        <v>102</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>102</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="I14" s="2">
         <v>112</v>
       </c>
-      <c r="S14" s="3">
+      <c r="J14" s="2">
         <v>112</v>
       </c>
-      <c r="T14" s="3">
+      <c r="K14" s="2">
         <v>112</v>
       </c>
-      <c r="U14" s="3">
-        <v>102</v>
-      </c>
-      <c r="V14" s="3">
-        <v>102</v>
-      </c>
-      <c r="W14" s="3">
-        <v>102</v>
-      </c>
-      <c r="X14" s="3">
-        <v>102</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>102</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>102</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>102</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>102</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>102</v>
-      </c>
-      <c r="AE14" s="3">
-        <v>102</v>
-      </c>
-      <c r="AF14" s="3">
+      <c r="L14" s="2">
+        <v>101</v>
+      </c>
+      <c r="M14" s="2">
+        <v>101</v>
+      </c>
+      <c r="N14" s="2">
+        <v>101</v>
+      </c>
+      <c r="O14" s="2">
+        <v>101</v>
+      </c>
+      <c r="P14" s="2">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>101</v>
+      </c>
+      <c r="R14" s="2">
+        <v>112</v>
+      </c>
+      <c r="S14" s="2">
+        <v>112</v>
+      </c>
+      <c r="T14" s="2">
+        <v>112</v>
+      </c>
+      <c r="U14" s="2">
+        <v>112</v>
+      </c>
+      <c r="V14" s="2">
+        <v>112</v>
+      </c>
+      <c r="W14" s="2">
+        <v>112</v>
+      </c>
+      <c r="X14" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>112</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG14" s="2">
         <v>103</v>
       </c>
-      <c r="AG14" s="3">
-        <v>112</v>
-      </c>
-      <c r="AH14" s="3">
-        <v>112</v>
-      </c>
-      <c r="AI14" s="3">
-        <v>112</v>
-      </c>
-      <c r="AJ14" s="3">
+      <c r="AH14" s="2">
         <v>103</v>
       </c>
-      <c r="AK14" s="3">
-        <v>101</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>101</v>
-      </c>
-      <c r="AM14" s="3">
-        <v>101</v>
-      </c>
-      <c r="AN14" s="3">
-        <v>101</v>
-      </c>
-      <c r="AO14" s="3">
-        <v>101</v>
-      </c>
-      <c r="AP14" s="3">
-        <v>101</v>
-      </c>
-      <c r="AQ14" s="3">
-        <v>101</v>
-      </c>
-      <c r="AR14" s="3">
-        <v>112</v>
-      </c>
-      <c r="AS14" s="3">
-        <v>112</v>
-      </c>
-      <c r="AT14" s="3">
-        <v>112</v>
-      </c>
-      <c r="AU14" s="3">
-        <v>101</v>
-      </c>
-      <c r="AV14" s="3">
-        <v>101</v>
-      </c>
-      <c r="AW14" s="3">
-        <v>101</v>
-      </c>
-      <c r="AX14" s="3">
-        <v>111</v>
-      </c>
-      <c r="AY14" s="3">
-        <v>111</v>
-      </c>
-      <c r="AZ14" s="11">
-        <v>111</v>
-      </c>
-      <c r="BA14" s="15">
-        <v>111</v>
+      <c r="AI14" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>103</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>103</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>103</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>101</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>101</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>101</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>101</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>101</v>
+      </c>
+      <c r="AW14" s="2">
+        <v>101</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>101</v>
+      </c>
+      <c r="AY14" s="2">
+        <v>101</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>101</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>101</v>
       </c>
       <c r="BB14" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BC14" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BD14" s="2">
         <v>101</v>
@@ -17814,1393 +17634,1393 @@
       </c>
     </row>
     <row r="15" spans="1:406" x14ac:dyDescent="0.45">
-      <c r="A15" s="10">
+      <c r="A15" s="2">
+        <v>101</v>
+      </c>
+      <c r="B15" s="2">
+        <v>101</v>
+      </c>
+      <c r="C15" s="2">
+        <v>101</v>
+      </c>
+      <c r="D15" s="2">
         <v>112</v>
       </c>
-      <c r="B15" s="3">
+      <c r="E15" s="2">
         <v>112</v>
       </c>
-      <c r="C15" s="3">
+      <c r="F15" s="2">
         <v>112</v>
       </c>
-      <c r="D15" s="3">
+      <c r="G15" s="2">
         <v>112</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="2">
         <v>112</v>
       </c>
-      <c r="F15" s="3">
-        <v>102</v>
-      </c>
-      <c r="G15" s="3">
-        <v>102</v>
-      </c>
-      <c r="H15" s="3">
-        <v>102</v>
-      </c>
-      <c r="I15" s="3">
-        <v>102</v>
-      </c>
-      <c r="J15" s="3">
-        <v>102</v>
-      </c>
-      <c r="K15" s="3">
-        <v>102</v>
-      </c>
-      <c r="L15" s="3">
-        <v>102</v>
-      </c>
-      <c r="M15" s="3">
-        <v>102</v>
-      </c>
-      <c r="N15" s="3">
-        <v>102</v>
-      </c>
-      <c r="O15" s="3">
-        <v>102</v>
-      </c>
-      <c r="P15" s="3">
-        <v>102</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>102</v>
-      </c>
-      <c r="R15" s="3">
-        <v>102</v>
-      </c>
-      <c r="S15" s="3">
-        <v>102</v>
-      </c>
-      <c r="T15" s="3">
-        <v>102</v>
-      </c>
-      <c r="U15" s="3">
-        <v>102</v>
-      </c>
-      <c r="V15" s="3">
-        <v>102</v>
-      </c>
-      <c r="W15" s="3">
-        <v>102</v>
-      </c>
-      <c r="X15" s="3">
-        <v>102</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>102</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>102</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>102</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>102</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>102</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>102</v>
-      </c>
-      <c r="AE15" s="3">
+      <c r="I15" s="2">
+        <v>112</v>
+      </c>
+      <c r="J15" s="2">
+        <v>112</v>
+      </c>
+      <c r="K15" s="2">
+        <v>112</v>
+      </c>
+      <c r="L15" s="2">
+        <v>112</v>
+      </c>
+      <c r="M15" s="2">
+        <v>101</v>
+      </c>
+      <c r="N15" s="2">
+        <v>101</v>
+      </c>
+      <c r="O15" s="2">
+        <v>101</v>
+      </c>
+      <c r="P15" s="2">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>112</v>
+      </c>
+      <c r="R15" s="2">
+        <v>112</v>
+      </c>
+      <c r="S15" s="2">
+        <v>112</v>
+      </c>
+      <c r="T15" s="2">
+        <v>112</v>
+      </c>
+      <c r="U15" s="2">
+        <v>112</v>
+      </c>
+      <c r="V15" s="2">
+        <v>112</v>
+      </c>
+      <c r="W15" s="2">
+        <v>112</v>
+      </c>
+      <c r="X15" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>112</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>112</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG15" s="2">
         <v>103</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AH15" s="2">
+        <v>103</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>103</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>103</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>103</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>101</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>101</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>101</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>101</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>101</v>
+      </c>
+      <c r="AV15" s="2">
+        <v>101</v>
+      </c>
+      <c r="AW15" s="2">
+        <v>101</v>
+      </c>
+      <c r="AX15" s="2">
+        <v>101</v>
+      </c>
+      <c r="AY15" s="2">
+        <v>101</v>
+      </c>
+      <c r="AZ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BB15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BC15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BD15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BE15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BF15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BG15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BH15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BI15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BJ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BK15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BL15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BM15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BN15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BO15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BP15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BQ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BR15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BS15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BT15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BU15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BV15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BW15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BX15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BY15" s="2">
+        <v>101</v>
+      </c>
+      <c r="BZ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CA15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CB15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CC15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CD15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CE15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CF15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CG15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CH15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CI15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CJ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CK15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CL15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CM15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CN15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CO15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CP15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CQ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CR15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CS15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CT15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CU15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CV15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CW15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CX15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CY15" s="2">
+        <v>101</v>
+      </c>
+      <c r="CZ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DA15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DB15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DC15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DD15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DE15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DF15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DG15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DH15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DI15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DJ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DK15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DL15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DM15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DN15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DO15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DP15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DQ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DR15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DS15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DT15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DU15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DV15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DW15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DX15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DY15" s="2">
+        <v>101</v>
+      </c>
+      <c r="DZ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EA15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EB15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EC15" s="2">
+        <v>101</v>
+      </c>
+      <c r="ED15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EE15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EF15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EG15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EH15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EI15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EJ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EK15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EL15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EM15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EN15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EO15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EP15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EQ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="ER15" s="2">
+        <v>101</v>
+      </c>
+      <c r="ES15" s="2">
+        <v>101</v>
+      </c>
+      <c r="ET15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EU15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EV15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EW15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EX15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EY15" s="2">
+        <v>101</v>
+      </c>
+      <c r="EZ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FA15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FB15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FC15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FD15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FE15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FF15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FG15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FH15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FI15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FJ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FK15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FL15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FM15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FN15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FO15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FP15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FQ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FR15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FS15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FT15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FU15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FV15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FW15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FX15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FY15" s="2">
+        <v>101</v>
+      </c>
+      <c r="FZ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GA15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GB15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GC15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GD15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GE15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GF15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GG15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GH15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GI15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GJ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GK15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GL15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GM15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GN15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GO15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GP15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GQ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GR15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GS15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GT15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GU15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GV15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GW15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GX15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GY15" s="2">
+        <v>101</v>
+      </c>
+      <c r="GZ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HA15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HB15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HC15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HD15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HE15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HF15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HG15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HH15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HI15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HJ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HK15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HL15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HM15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HN15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HO15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HP15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HQ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HR15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HS15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HT15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HU15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HV15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HW15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HX15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HY15" s="2">
+        <v>101</v>
+      </c>
+      <c r="HZ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IA15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IB15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IC15" s="2">
+        <v>101</v>
+      </c>
+      <c r="ID15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IE15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IF15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IG15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IH15" s="2">
+        <v>101</v>
+      </c>
+      <c r="II15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IJ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IK15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IL15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IM15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IN15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IO15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IP15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IQ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IR15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IS15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IT15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IU15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IV15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IW15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IX15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IY15" s="2">
+        <v>101</v>
+      </c>
+      <c r="IZ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JA15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JB15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JC15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JD15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JE15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JF15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JG15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JH15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JI15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JJ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JK15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JL15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JM15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JN15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JO15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JP15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JQ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JR15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JS15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JT15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JU15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JV15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JW15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JX15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JY15" s="2">
+        <v>101</v>
+      </c>
+      <c r="JZ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KA15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KB15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KC15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KD15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KE15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KF15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KG15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KH15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KI15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KJ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KK15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KL15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KM15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KN15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KO15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KP15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KQ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KR15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KS15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KT15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KU15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KV15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KW15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KX15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KY15" s="2">
+        <v>101</v>
+      </c>
+      <c r="KZ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LA15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LB15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LC15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LD15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LE15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LF15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LG15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LH15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LI15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LJ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LK15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LL15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LM15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LN15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LO15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LP15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LQ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LR15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LS15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LT15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LU15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LV15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LW15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LX15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LY15" s="2">
+        <v>101</v>
+      </c>
+      <c r="LZ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MA15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MB15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MC15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MD15" s="2">
+        <v>101</v>
+      </c>
+      <c r="ME15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MF15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MG15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MH15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MI15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MJ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MK15" s="2">
+        <v>101</v>
+      </c>
+      <c r="ML15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MM15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MN15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MO15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MP15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MQ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MR15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MS15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MT15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MU15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MV15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MW15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MX15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MY15" s="2">
+        <v>101</v>
+      </c>
+      <c r="MZ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NA15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NB15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NC15" s="2">
+        <v>101</v>
+      </c>
+      <c r="ND15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NE15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NF15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NG15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NH15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NI15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NJ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NK15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NL15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NM15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NN15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NO15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NP15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NQ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NR15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NS15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NT15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NU15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NV15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NW15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NX15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NY15" s="2">
+        <v>101</v>
+      </c>
+      <c r="NZ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="OA15" s="2">
+        <v>101</v>
+      </c>
+      <c r="OB15" s="2">
+        <v>101</v>
+      </c>
+      <c r="OC15" s="2">
+        <v>101</v>
+      </c>
+      <c r="OD15" s="2">
+        <v>101</v>
+      </c>
+      <c r="OE15" s="2">
+        <v>101</v>
+      </c>
+      <c r="OF15" s="2">
+        <v>101</v>
+      </c>
+      <c r="OG15" s="2">
+        <v>101</v>
+      </c>
+      <c r="OH15" s="2">
+        <v>101</v>
+      </c>
+      <c r="OI15" s="2">
+        <v>101</v>
+      </c>
+      <c r="OJ15" s="2">
+        <v>101</v>
+      </c>
+      <c r="OK15" s="2">
+        <v>101</v>
+      </c>
+      <c r="OL15" s="2">
+        <v>101</v>
+      </c>
+      <c r="OM15" s="2">
+        <v>101</v>
+      </c>
+      <c r="ON15" s="2">
+        <v>101</v>
+      </c>
+      <c r="OO15" s="2">
+        <v>101</v>
+      </c>
+      <c r="OP15" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:406" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>101</v>
+      </c>
+      <c r="B16" s="2">
         <v>112</v>
       </c>
-      <c r="AG15" s="3">
+      <c r="C16" s="2">
         <v>112</v>
       </c>
-      <c r="AH15" s="3">
+      <c r="D16" s="2">
         <v>112</v>
       </c>
-      <c r="AI15" s="3">
+      <c r="E16" s="2">
+        <v>112</v>
+      </c>
+      <c r="F16" s="2">
+        <v>112</v>
+      </c>
+      <c r="G16" s="2">
+        <v>112</v>
+      </c>
+      <c r="H16" s="2">
+        <v>112</v>
+      </c>
+      <c r="I16" s="2">
+        <v>112</v>
+      </c>
+      <c r="J16" s="2">
+        <v>112</v>
+      </c>
+      <c r="K16" s="2">
+        <v>112</v>
+      </c>
+      <c r="L16" s="2">
+        <v>112</v>
+      </c>
+      <c r="M16" s="2">
+        <v>112</v>
+      </c>
+      <c r="N16" s="2">
+        <v>112</v>
+      </c>
+      <c r="O16" s="2">
+        <v>112</v>
+      </c>
+      <c r="P16" s="2">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>112</v>
+      </c>
+      <c r="R16" s="2">
+        <v>112</v>
+      </c>
+      <c r="S16" s="2">
+        <v>112</v>
+      </c>
+      <c r="T16" s="2">
+        <v>112</v>
+      </c>
+      <c r="U16" s="2">
+        <v>112</v>
+      </c>
+      <c r="V16" s="2">
+        <v>112</v>
+      </c>
+      <c r="W16" s="2">
+        <v>112</v>
+      </c>
+      <c r="X16" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>112</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>112</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>101</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>101</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>101</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF16" s="2">
         <v>103</v>
       </c>
-      <c r="AJ15" s="3">
-        <v>101</v>
-      </c>
-      <c r="AK15" s="3">
-        <v>101</v>
-      </c>
-      <c r="AL15" s="3">
-        <v>101</v>
-      </c>
-      <c r="AM15" s="3">
-        <v>101</v>
-      </c>
-      <c r="AN15" s="3">
-        <v>101</v>
-      </c>
-      <c r="AO15" s="3">
-        <v>101</v>
-      </c>
-      <c r="AP15" s="3">
-        <v>101</v>
-      </c>
-      <c r="AQ15" s="3">
-        <v>112</v>
-      </c>
-      <c r="AR15" s="3">
-        <v>112</v>
-      </c>
-      <c r="AS15" s="3">
-        <v>112</v>
-      </c>
-      <c r="AT15" s="3">
-        <v>101</v>
-      </c>
-      <c r="AU15" s="3">
-        <v>101</v>
-      </c>
-      <c r="AV15" s="3">
-        <v>101</v>
-      </c>
-      <c r="AW15" s="3">
-        <v>111</v>
-      </c>
-      <c r="AX15" s="3">
-        <v>111</v>
-      </c>
-      <c r="AY15" s="3">
-        <v>111</v>
-      </c>
-      <c r="AZ15" s="11">
-        <v>111</v>
-      </c>
-      <c r="BA15" s="15">
-        <v>111</v>
-      </c>
-      <c r="BB15" s="2">
-        <v>111</v>
-      </c>
-      <c r="BC15" s="2">
-        <v>111</v>
-      </c>
-      <c r="BD15" s="2">
-        <v>111</v>
-      </c>
-      <c r="BE15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BF15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BG15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BH15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BI15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BJ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BK15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BL15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BM15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BN15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BO15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BP15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BQ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BR15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BS15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BT15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BU15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BV15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BW15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BX15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BY15" s="2">
-        <v>101</v>
-      </c>
-      <c r="BZ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CA15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CB15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CC15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CD15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CE15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CF15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CG15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CH15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CI15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CJ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CK15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CL15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CM15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CN15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CO15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CP15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CQ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CR15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CS15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CT15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CU15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CV15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CW15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CX15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CY15" s="2">
-        <v>101</v>
-      </c>
-      <c r="CZ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DA15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DB15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DC15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DD15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DE15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DF15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DG15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DH15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DI15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DJ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DK15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DL15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DM15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DN15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DO15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DP15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DQ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DR15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DS15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DT15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DU15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DV15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DW15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DX15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DY15" s="2">
-        <v>101</v>
-      </c>
-      <c r="DZ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EA15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EB15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EC15" s="2">
-        <v>101</v>
-      </c>
-      <c r="ED15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EE15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EF15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EG15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EH15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EI15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EJ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EK15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EL15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EM15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EN15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EO15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EP15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EQ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="ER15" s="2">
-        <v>101</v>
-      </c>
-      <c r="ES15" s="2">
-        <v>101</v>
-      </c>
-      <c r="ET15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EU15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EV15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EW15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EX15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EY15" s="2">
-        <v>101</v>
-      </c>
-      <c r="EZ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FA15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FB15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FC15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FD15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FE15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FF15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FG15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FH15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FI15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FJ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FK15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FL15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FM15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FN15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FO15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FP15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FQ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FR15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FS15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FT15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FU15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FV15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FW15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FX15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FY15" s="2">
-        <v>101</v>
-      </c>
-      <c r="FZ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GA15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GB15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GC15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GD15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GE15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GF15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GG15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GH15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GI15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GJ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GK15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GL15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GM15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GN15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GO15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GP15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GQ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GR15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GS15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GT15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GU15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GV15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GW15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GX15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GY15" s="2">
-        <v>101</v>
-      </c>
-      <c r="GZ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HA15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HB15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HC15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HD15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HE15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HF15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HG15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HH15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HI15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HJ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HK15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HL15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HM15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HN15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HO15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HP15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HQ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HR15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HS15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HT15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HU15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HV15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HW15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HX15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HY15" s="2">
-        <v>101</v>
-      </c>
-      <c r="HZ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IA15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IB15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IC15" s="2">
-        <v>101</v>
-      </c>
-      <c r="ID15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IE15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IF15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IG15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IH15" s="2">
-        <v>101</v>
-      </c>
-      <c r="II15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IJ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IK15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IL15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IM15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IN15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IO15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IP15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IQ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IR15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IS15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IT15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IU15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IV15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IW15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IX15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IY15" s="2">
-        <v>101</v>
-      </c>
-      <c r="IZ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JA15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JB15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JC15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JD15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JE15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JF15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JG15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JH15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JI15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JJ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JK15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JL15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JM15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JN15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JO15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JP15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JQ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JR15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JS15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JT15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JU15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JV15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JW15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JX15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JY15" s="2">
-        <v>101</v>
-      </c>
-      <c r="JZ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KA15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KB15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KC15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KD15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KE15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KF15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KG15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KH15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KI15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KJ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KK15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KL15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KM15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KN15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KO15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KP15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KQ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KR15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KS15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KT15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KU15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KV15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KW15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KX15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KY15" s="2">
-        <v>101</v>
-      </c>
-      <c r="KZ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LA15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LB15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LC15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LD15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LE15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LF15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LG15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LH15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LI15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LJ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LK15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LL15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LM15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LN15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LO15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LP15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LQ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LR15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LS15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LT15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LU15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LV15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LW15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LX15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LY15" s="2">
-        <v>101</v>
-      </c>
-      <c r="LZ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MA15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MB15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MC15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MD15" s="2">
-        <v>101</v>
-      </c>
-      <c r="ME15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MF15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MG15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MH15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MI15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MJ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MK15" s="2">
-        <v>101</v>
-      </c>
-      <c r="ML15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MM15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MN15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MO15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MP15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MQ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MR15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MS15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MT15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MU15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MV15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MW15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MX15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MY15" s="2">
-        <v>101</v>
-      </c>
-      <c r="MZ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NA15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NB15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NC15" s="2">
-        <v>101</v>
-      </c>
-      <c r="ND15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NE15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NF15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NG15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NH15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NI15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NJ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NK15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NL15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NM15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NN15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NO15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NP15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NQ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NR15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NS15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NT15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NU15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NV15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NW15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NX15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NY15" s="2">
-        <v>101</v>
-      </c>
-      <c r="NZ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="OA15" s="2">
-        <v>101</v>
-      </c>
-      <c r="OB15" s="2">
-        <v>101</v>
-      </c>
-      <c r="OC15" s="2">
-        <v>101</v>
-      </c>
-      <c r="OD15" s="2">
-        <v>101</v>
-      </c>
-      <c r="OE15" s="2">
-        <v>101</v>
-      </c>
-      <c r="OF15" s="2">
-        <v>101</v>
-      </c>
-      <c r="OG15" s="2">
-        <v>101</v>
-      </c>
-      <c r="OH15" s="2">
-        <v>101</v>
-      </c>
-      <c r="OI15" s="2">
-        <v>101</v>
-      </c>
-      <c r="OJ15" s="2">
-        <v>101</v>
-      </c>
-      <c r="OK15" s="2">
-        <v>101</v>
-      </c>
-      <c r="OL15" s="2">
-        <v>101</v>
-      </c>
-      <c r="OM15" s="2">
-        <v>101</v>
-      </c>
-      <c r="ON15" s="2">
-        <v>101</v>
-      </c>
-      <c r="OO15" s="2">
-        <v>101</v>
-      </c>
-      <c r="OP15" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:406" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="12">
-        <v>112</v>
-      </c>
-      <c r="B16" s="13">
-        <v>112</v>
-      </c>
-      <c r="C16" s="13">
-        <v>112</v>
-      </c>
-      <c r="D16" s="13">
-        <v>112</v>
-      </c>
-      <c r="E16" s="13">
-        <v>112</v>
-      </c>
-      <c r="F16" s="13">
-        <v>112</v>
-      </c>
-      <c r="G16" s="13">
-        <v>112</v>
-      </c>
-      <c r="H16" s="13">
-        <v>102</v>
-      </c>
-      <c r="I16" s="13">
-        <v>102</v>
-      </c>
-      <c r="J16" s="13">
-        <v>102</v>
-      </c>
-      <c r="K16" s="13">
-        <v>102</v>
-      </c>
-      <c r="L16" s="13">
-        <v>102</v>
-      </c>
-      <c r="M16" s="13">
-        <v>102</v>
-      </c>
-      <c r="N16" s="13">
-        <v>102</v>
-      </c>
-      <c r="O16" s="13">
-        <v>102</v>
-      </c>
-      <c r="P16" s="13">
-        <v>102</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>102</v>
-      </c>
-      <c r="R16" s="13">
-        <v>102</v>
-      </c>
-      <c r="S16" s="13">
-        <v>102</v>
-      </c>
-      <c r="T16" s="13">
-        <v>102</v>
-      </c>
-      <c r="U16" s="13">
-        <v>102</v>
-      </c>
-      <c r="V16" s="13">
-        <v>102</v>
-      </c>
-      <c r="W16" s="13">
-        <v>102</v>
-      </c>
-      <c r="X16" s="13">
-        <v>102</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>102</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>102</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>102</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>102</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>102</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>102</v>
-      </c>
-      <c r="AE16" s="13">
+      <c r="AG16" s="2">
         <v>103</v>
       </c>
-      <c r="AF16" s="13">
-        <v>112</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>112</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>112</v>
-      </c>
-      <c r="AI16" s="13">
+      <c r="AH16" s="2">
         <v>103</v>
       </c>
-      <c r="AJ16" s="13">
-        <v>101</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>101</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>101</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>101</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>101</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>101</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>112</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>112</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>112</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>101</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>101</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>101</v>
-      </c>
-      <c r="AV16" s="13">
-        <v>101</v>
-      </c>
-      <c r="AW16" s="13">
-        <v>111</v>
-      </c>
-      <c r="AX16" s="13">
-        <v>111</v>
-      </c>
-      <c r="AY16" s="13">
-        <v>111</v>
-      </c>
-      <c r="AZ16" s="14">
-        <v>111</v>
-      </c>
-      <c r="BA16" s="6">
-        <v>111</v>
+      <c r="AI16" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>103</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>103</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>103</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>103</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>103</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>103</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>101</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>101</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>101</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>101</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>101</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>101</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>101</v>
+      </c>
+      <c r="AX16" s="2">
+        <v>101</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>101</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>101</v>
+      </c>
+      <c r="BA16" s="2">
+        <v>101</v>
       </c>
       <c r="BB16" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BC16" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BD16" s="2">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BE16" s="2">
         <v>101</v>

--- a/Excel/SecondGround.xlsx
+++ b/Excel/SecondGround.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEBF815-2E7B-47CE-B3D0-2653C7CD946D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92ACA90-4AAB-4D8A-A80C-C89239EB326B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:OP23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN10" sqref="AN10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
